--- a/woolworths_data_with_barcodes_cleaned.xlsx
+++ b/woolworths_data_with_barcodes_cleaned.xlsx
@@ -780,7 +780,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>The Australian barcode for the 'Cadbury Curlywurly Squirlies Chocolate Snack &amp; Share Bag 130g' is 9300617303121. ([inlanddistributors.com.au](https://www.inlanddistributors.com.au/shop/CONFECTIONERY/CHOCOLATE/BAGS%2BSHAREPACK?%24Sort=Code&amp;utm_source=openai))</t>
+          <t>9300617303121</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>The barcode for F Mayer Danish Fetta Cheese per kilogram is not specified in the available sources. However, the product is listed on Woolworths' website, which may provide additional information. ([woolworths.com.au](https://www.woolworths.com.au/shop/productdetails/19080/f-mayer-danish-fetta-cheese-cheese?utm_source=openai))</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>The Australian barcode for Reese's Peanut Butter Cup Milk Chocolate 42g Bar is 034000702596. ([world.openfoodfacts.org](https://world.openfoodfacts.org/product/0034000702596/reese-s-2-peanut-butter-cups-reeses?utm_source=openai))</t>
+          <t>034000702596</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Peters Maxibon Waffle On Frozen Dessert Bars 4 pack' is 9347043002358. ([world.openfoodfacts.org](https://world.openfoodfacts.org/product/9347043002358/maxibon-waffle-nestle?utm_source=openai))</t>
+          <t>9347043002358</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Continental Classics Cup a Soup Creamy Chicken &amp; Corn With Croutons 60g' is 9300667025332. ([treatsfromoz.com](https://www.treatsfromoz.com/products/continental-classics-cup-a-soup-creamy-chicken-corn-with-croutons-60g?srsltid=AfmBOoqDuH_QzQIJTLjYTYQVI01AwmSBVKzHGsFsN_uDktMg9AQJPP6X&amp;utm_source=openai))</t>
+          <t>9300667025332</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Nescafé Cappuccino Coffee Sachets 10 Pack' is 9300605157460. ([officeworks.com.au](https://www.officeworks.com.au/shop/officeworks/p/nescafe-cappuccino-sachet-10-pack-ne12600890?bvstate=pg%3A8%2Fct%3Ar&amp;showProductTab=reviews&amp;utm_source=openai))</t>
+          <t>9300605157460</t>
         </is>
       </c>
     </row>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Grenade Caramel Chaos Milk Chocolate Protein Bar 60g is 5060221201391. ([kogan.com](https://www.kogan.com/au/buy/deal-first-grenade-caramel-chaos-milk-chocolate-protein-bar-60g-8614505349332/?utm_source=openai))</t>
+          <t>5060221201391</t>
         </is>
       </c>
     </row>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Nescafe Cappuccino Strong Coffee Sachets 10 pack' is 8801055062287. ([mydeal.com.au](https://www.mydeal.com.au/nescafe-coffee-strong-cappuccino-sachets-10-pack-12439211?utm_source=openai))</t>
+          <t>8801055062287</t>
         </is>
       </c>
     </row>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Cadbury Chomp Milk Chocolate Bar 30g is 9300617323419. ([campbells.com.au](https://www.campbells.com.au/convenience/confectionery-%26-snacks/chocolate/chomp-wafer-biscuit-chocolate/0000431170_890?utm_source=openai))</t>
+          <t>9300617323419</t>
         </is>
       </c>
     </row>
@@ -5208,7 +5208,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>The Australian barcode for Hershey's Cookies 'N' Creme Bar 40g is 9310645111056. ([americancandystore.com.au](https://www.americancandystore.com.au/product/hersheys-cookies-n-creme-43g/?utm_source=openai))</t>
+          <t>9310645111056</t>
         </is>
       </c>
     </row>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>93555517</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>The Australian barcode for the 'Cadbury Favourites Boxed Chocolate 820g' is 9300617304265. ([mydeal.com.au](https://www.mydeal.com.au/cadbury-favourites-820g-9867152?utm_source=openai))</t>
+          <t>9300617304265</t>
         </is>
       </c>
     </row>
@@ -5883,7 +5883,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Vitasoy Oat Yoghurt Summer Fruits 140g' is 9341650002381.</t>
+          <t>9341650002381</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>The Australian barcode for Dove Women's Roll-On Deodorant Original 50ml is 93666466. ([vitalpharmacysupplies.com.au](https://vitalpharmacysupplies.com.au/products/dove-original-antiperspirant-roll-on-deodorant-50ml?utm_source=openai))</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -6558,7 +6558,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>93600101</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Cadbury Favourites Boxed Chocolate 820g' is 9300617304265. ([mydeal.com.au](https://www.mydeal.com.au/cadbury-favourites-820g-9867152?utm_source=openai))</t>
+          <t>9300617304265</t>
         </is>
       </c>
     </row>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Cadbury Favourites Boxed Chocolate 820g' is 9300617304265. ([mydeal.com.au](https://www.mydeal.com.au/cadbury-favourites-820g-9867152?utm_source=openai))</t>
+          <t>9300617304265</t>
         </is>
       </c>
     </row>
@@ -8394,7 +8394,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Sistema Klip It Plus Rectangle 400ml container is 9414202885401. ([officeworks.com.au](https://www.officeworks.com.au/shop/officeworks/p/sistema-klip-it-plus-rectangle-400ml-si881540?utm_source=openai))</t>
+          <t>9414202885401</t>
         </is>
       </c>
     </row>
@@ -9150,7 +9150,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Belvita Breakfast Biscuits Milk &amp; Cereals 6 Pack 300g' is 762230068905. ([mydeal.com.au](https://www.mydeal.com.au/belvita-milk-and-cereal-breakfast-biscuits-6-pack-300g-12795478?utm_source=openai))</t>
+          <t>762230068905</t>
         </is>
       </c>
     </row>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Dove Refreshing Body Wash Cucumber &amp; Green Tea 1 L' is 9300830001194. ([dove.com](https://www.dove.com/au/p/go-fresh-touch-nourishing-cucumber-and-green-tea-body-wash.html/09300830001194?utm_source=openai))</t>
+          <t>9300830001194</t>
         </is>
       </c>
     </row>
@@ -9690,7 +9690,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>The barcode for OMO Ultimate Washing Powder 2Kg in Australia is 8934868164586. ([dicksmith.com.au](https://www.dicksmith.com.au/da/buy/deal-first-omo-ultimate-washing-powder-2kg-8646270845140/?utm_source=openai))</t>
+          <t>8934868164586</t>
         </is>
       </c>
     </row>
@@ -9960,7 +9960,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Nescafe Double Shot Latte Coffee Sachets 10 Pack' is 9300605158276. ([mydeal.com.au](https://www.mydeal.com.au/nescafe-double-shot-caramel-latte-coffee-sachets-10-pack-14708231?utm_source=openai))</t>
+          <t>9300605158276</t>
         </is>
       </c>
     </row>
@@ -10014,7 +10014,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>80177609</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>The barcode for the Sistema Klip It Plus Lunch Container 1.15L 2 Pack is 9414202886507.</t>
+          <t>9414202886507</t>
         </is>
       </c>
     </row>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>The barcode for Jammie Dodgers Raspberry Biscuits 140g is 072417143700. ([usacandyfactory.com.au](https://usacandyfactory.com.au/jammie-dodgers-raspberry-biscuits-140g/?utm_source=openai))</t>
+          <t>072417143700</t>
         </is>
       </c>
     </row>
@@ -10635,7 +10635,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>The Australian barcode for Dove Women's Roll-On Deodorant Invisible Dry 50ml is 93465670. ([davidjonespharmacy.com.au](https://www.davidjonespharmacy.com.au/dove-women-antiperspirant-deodorant-roll-on-invisi?utm_source=openai))</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>The barcode for Oreo Caramilk Mini Cookies Biscuits Box 157g is 9310034002576. ([mydeal.com.au](https://www.mydeal.com.au/oreo-caramilk-mini-cookies-biscuits-box-157g-13571312?utm_source=openai)) However, I couldn't find a barcode for the 204g variant.</t>
+          <t>9310034002576</t>
         </is>
       </c>
     </row>
@@ -11013,7 +11013,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Nescafe 98% Sugar Free Caramel Latte Coffee Sachets 10 Pack' is 9300605138216. ([mydeal.com.au](https://www.mydeal.com.au/nescafe-coffee-sugar-free-caramel-latte-sachets-10-pack-12439210?utm_source=openai))</t>
+          <t>9300605138216</t>
         </is>
       </c>
     </row>
@@ -11067,7 +11067,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Bulla Creamy Classics Neapolitan Cones 4 Pack' is 9310161016194. ([world.openfoodfacts.org](https://world.openfoodfacts.org/product/9310161016194/creamy-classics-neapolitan-ice-cream-sandwich-bulla?utm_source=openai))</t>
+          <t>9310161016194</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>The Australian barcode for the 'Cadbury Favourites Boxed Chocolate 820g' is 9300617304265. ([mydeal.com.au](https://www.mydeal.com.au/cadbury-favourites-820g-9867152?utm_source=openai))</t>
+          <t>9300617304265</t>
         </is>
       </c>
     </row>
@@ -11580,7 +11580,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Cadbury Chomp Milk Chocolate Bar 30g is 9300617323419. ([campbells.com.au](https://www.campbells.com.au/convenience/confectionery-%26-snacks/chocolate/chomp-wafer-biscuit-chocolate/0000431170_890?utm_source=openai))</t>
+          <t>9300617323419</t>
         </is>
       </c>
     </row>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>The barcode for Radiant Advanced+ Ultra Power Laundry Detergent Washing Powder 1.8kg is not available in the provided sources. However, the barcode for Radiant Advanced+ Ultra Power Laundry Liquid Detergent 1.8L is 9300615092461. ([mydeal.com.au](https://www.mydeal.com.au/radiant-advanced-ultra-power-laundry-liquid-detergent-1-8l-14787075?utm_source=openai))</t>
+          <t>9300615092461</t>
         </is>
       </c>
     </row>
@@ -11877,7 +11877,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Aunt Betty's Sticky Date Steamy Puds 2x95g' is 9417986939032. ([world.openfoodfacts.org](https://world.openfoodfacts.org/product/9417986939032/sticky-date-steamed-puddings-aunt-betty-s?utm_source=openai))</t>
+          <t>9417986939032</t>
         </is>
       </c>
     </row>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>93571753</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -12390,7 +12390,7 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>The barcode for L'Oreal Paris Elvive Hyaluron Plump 72h Moisture Filling Conditioner 340mL in Australia is 3600524034788. ([mydeal.com.au](https://www.mydeal.com.au/l-oreal-paris-elvive-hyaluron-plump-conditioner-300ml-10200706?utm_source=openai))</t>
+          <t>3600524034788</t>
         </is>
       </c>
     </row>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Cadbury Favourites Boxed Chocolate 820g' is 9300617304265. ([mydeal.com.au](https://www.mydeal.com.au/cadbury-favourites-820g-9867152?utm_source=openai))</t>
+          <t>9300617304265</t>
         </is>
       </c>
     </row>
@@ -12687,7 +12687,7 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>The Australian barcode for Connoisseur Cookies &amp; Cream Ice Cream Sticks 4 Pack is 9347042000997. ([world.openfoodfacts.org](https://world.openfoodfacts.org/product/9347042000997/cookies-and-cream-connoisseur?utm_source=openai))</t>
+          <t>9347042000997</t>
         </is>
       </c>
     </row>
@@ -12714,7 +12714,7 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Cadbury Chomp Milk Chocolate Bar 30g is 9300617323419. ([campbells.com.au](https://www.campbells.com.au/convenience/confectionery-%26-snacks/chocolate/chomp-wafer-biscuit-chocolate/0000431170_890?utm_source=openai))</t>
+          <t>9300617323419</t>
         </is>
       </c>
     </row>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Dove Women's Roll On Deodorant Coconut 50ml' is 4800888210975. ([mydeal.com.au](https://www.mydeal.com.au/dove-roll-on-deodorant-coconut-jasmine-flower-scent-50ml-13820294?utm_source=openai))</t>
+          <t>4800888210975</t>
         </is>
       </c>
     </row>
@@ -13443,7 +13443,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Ritz Breakz Classic Crackers 250g' is 29310034287038. ([kgelectronic.com.au](https://www.kgelectronic.com.au/p/12pc-Ritz-Breakz-Original-Savoury-Crackers-Biscuit/4228703?utm_source=openai))</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -13848,7 +13848,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>The Australian barcode for the 'Bluey Easter Hunt Pack Mini Chocolate Eggs &amp; Markers 125g' is 935556. ([ebay.com.au](https://www.ebay.com.au/itm/326482574733?utm_source=openai))</t>
+          <t>326482574733</t>
         </is>
       </c>
     </row>
@@ -14145,7 +14145,7 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>The barcode for Reese's White Peanut Butter Cups 39g is 034000433032. ([world.openfoodfacts.org](https://world.openfoodfacts.org/product/0034000433032/white-2-peanut-butter-cups-reese-s?utm_source=openai))</t>
+          <t>034000433032</t>
         </is>
       </c>
     </row>
@@ -14307,7 +14307,7 @@
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>The barcode for Jammie Dodgers Really Fruity Strawberry Jam Biscuits 140g is 072417143700. ([upcitemdb.com](https://www.upcitemdb.com/upc/72417143700?utm_source=openai))</t>
+          <t>072417143700</t>
         </is>
       </c>
     </row>
@@ -14388,7 +14388,7 @@
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Sunsilk Shampoo Longer &amp; Stronger 700 mL' is 9300830029235. ([sunsilk.com.au](https://www.sunsilk.com.au/p/longer-and-stronger-shampoo.html/09300830029235?utm_source=openai))</t>
+          <t>9300830029235</t>
         </is>
       </c>
     </row>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>The Australian barcode for Hershey's Cookies &amp; Cream Salted Caramel Bar 38g is 6942836724801. ([woolworths.com.au](https://www.woolworths.com.au/shop/productdetails/637982?utm_source=openai))</t>
+          <t>6942836724801</t>
         </is>
       </c>
     </row>
@@ -14847,7 +14847,7 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Cadbury Favourites Boxed Chocolate 820g' is 9300617304265. ([mydeal.com.au](https://www.mydeal.com.au/cadbury-favourites-820g-9867152?utm_source=openai))</t>
+          <t>9300617304265</t>
         </is>
       </c>
     </row>
@@ -14928,7 +14928,7 @@
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Dove Women Antiperspirant Stick Deodorant Original 40g' is 0000093830317. ([dicksmith.com.au](https://www.dicksmith.com.au/da/buy/deals-n-steals-estore-dove-original-anti-perspirant-deodorant-stick-40g-83869/?utm_source=openai))</t>
+          <t>0000093830317</t>
         </is>
       </c>
     </row>
@@ -15090,7 +15090,7 @@
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Cadbury Chomp Milk Chocolate Bar 30g is 9300617323419. ([sweetmemoriesdelivered.uk](https://www.sweetmemoriesdelivered.uk/cadbury-chomp--30g---australian--38158-p.asp?utm_source=openai))</t>
+          <t>9300617323419</t>
         </is>
       </c>
     </row>
@@ -15387,7 +15387,7 @@
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>The barcode for 'Wow Hydrate Collagen Protein Water Summer Fruits 500ml' is 5060446100578. ([wowstoredirect.com](https://wowstoredirect.com/products/4956/wow-hydrate-10g-protein-summer-fruit-flavour-drink-500ml-bottle?utm_source=openai))</t>
+          <t>5060446100578</t>
         </is>
       </c>
     </row>
@@ -15711,7 +15711,7 @@
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Pantene Collagen Intense Repair &amp; Shine Miracle Mask 250mL' is 4987176043337. ([chemistwarehouse.com.au](https://www.chemistwarehouse.com.au/buy/136737/pantene-collagen-jar-mask-250ml?utm_source=openai))</t>
+          <t>4987176043337</t>
         </is>
       </c>
     </row>
@@ -15761,7 +15761,7 @@
       <c r="D568" t="inlineStr"/>
       <c r="E568" t="inlineStr">
         <is>
-          <t>The Australian barcode for the 'Sabco Strong Grip Pegs 50 Pack' is 9310205601065. ([kgelectronic.com.au](https://www.kgelectronic.com.au/p/Home-Garden/Cleaning-Housekeeping/Laundry-Supplies/Pegs-Peg-Bags/2-x-50pc-Sabco-Strong-Grip-Pegs-Multicoloured/SAB60106_2PK?utm_source=openai))</t>
+          <t>9310205601065</t>
         </is>
       </c>
     </row>
@@ -15815,7 +15815,7 @@
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>The barcode for the Sistema Klip It Plus Rectangle 2.2L container is 9414202887009. ([mydeal.com.au](https://www.mydeal.com.au/sistema-2-2l-rect-klip-it-15141442?utm_source=openai)) However, I couldn't find a specific barcode for the 2-pack version of this product.</t>
+          <t>9414202887009</t>
         </is>
       </c>
     </row>
@@ -16598,7 +16598,7 @@
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Dove Men+Care Clean Comfort Body &amp; Face Wash 1L' is 8717644683149. ([buycott.com](https://www.buycott.com/upc/8717644683149?utm_source=openai))</t>
+          <t>8717644683149</t>
         </is>
       </c>
     </row>
@@ -17084,7 +17084,7 @@
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Sistema Klip It Plus Juice Jug 2L is 9414202884206. ([megaofficesupplies.com.au](https://megaofficesupplies.com.au/sistema-klip-it-plus-juice-jug-2l-dark-blue/?utm_source=openai))</t>
+          <t>9414202884206</t>
         </is>
       </c>
     </row>
@@ -17543,7 +17543,7 @@
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Up&amp;Go Liquid Breakfast Banana 250mL x 6 pack' is 9300652009309. ([ebay.co.uk](https://www.ebay.co.uk/itm/186666109446?utm_source=openai))</t>
+          <t>9300652009309</t>
         </is>
       </c>
     </row>
@@ -17678,7 +17678,7 @@
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>The barcode for the 'Scotch-Brite Heavy Duty Scourer &amp; Sponge 3 Pack' in Australia is not available in the provided sources. However, the barcode for the 2-pack variant is 9310063000277. ([officeworks.com.au](https://www.officeworks.com.au/shop/officeworks/p/scotch-brite-heavy-duty-scourer-sponge-2-pack-3m0378778?utm_source=openai))</t>
+          <t>9310063000277</t>
         </is>
       </c>
     </row>
@@ -18079,7 +18079,7 @@
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Weis Mini Ice Cream &amp; Fruit Bar Mango 6 x 44mL' is 9300830050574. ([streetsicecream.com.au](https://www.streetsicecream.com.au/p/weis-mini-mango-%26-ice-cream-bar.html/09300830050574?utm_source=openai))</t>
+          <t>9300830050574</t>
         </is>
       </c>
     </row>
@@ -18187,7 +18187,7 @@
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>The barcode for Sunsilk Soft &amp; Smooth Shampoo 700ml in Australia is 9300830029549. ([sunsilk.com.au](https://www.sunsilk.com.au/p/soft-and-smooth-shampoo.html/09300830029549?utm_source=openai))</t>
+          <t>9300830029549</t>
         </is>
       </c>
     </row>
@@ -18268,7 +18268,7 @@
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>70330713970</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -18295,7 +18295,7 @@
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Cadbury Curly Wurly Squirlies 130g is 9300617303121. ([inlanddistributors.com.au](https://www.inlanddistributors.com.au/shop/CONFECTIONERY/CHOCOLATE/BAGS%2BSHAREPACK?%24Sort=Code&amp;utm_source=openai))</t>
+          <t>9300617303121</t>
         </is>
       </c>
     </row>
@@ -18939,7 +18939,7 @@
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>The barcode for 'Up&amp;Go Liquid Breakfast Dairy Free Choc Ice 250mL x 6 pack' is 9300652957693. ([ebay.com.au](https://www.ebay.com.au/p/8029378984?utm_source=openai))</t>
+          <t>9300652957693</t>
         </is>
       </c>
     </row>
@@ -19182,7 +19182,7 @@
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>The barcode for 'Wow Hydrate Collagen Protein Water Tropical 500ml' is 5060446100561. ([wowstoredirect.com](https://wowstoredirect.com/products/4040/wow-hydrate-10g-protein-tropical-flavour-drink-500ml-bottles--sugar-free-protein-and-vitamin-wate?utm_source=openai))</t>
+          <t>5060446100561</t>
         </is>
       </c>
     </row>
@@ -19236,7 +19236,7 @@
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Gillette Sensor3 Men's Disposable Razors For Sensitive Skin 4 Pack' is 4902430873444. ([catandclaudias.com.au](https://catandclaudias.com.au/gillette-sensor3-sensitive-razors-4-pack-4902430873444?utm_source=openai))</t>
+          <t>4902430873444</t>
         </is>
       </c>
     </row>
@@ -19938,7 +19938,7 @@
       </c>
       <c r="E723" t="inlineStr">
         <is>
-          <t>The barcode for 'The Spice Tailor Spicy Butter Chicken Medium 300g' in Australia is 5000354926402. ([world.openfoodfacts.org](https://world.openfoodfacts.org/product/5000354926402/spicy-butter-chicken-the-spice-tailor?utm_source=openai))</t>
+          <t>5000354926402</t>
         </is>
       </c>
     </row>
@@ -20181,7 +20181,7 @@
       </c>
       <c r="E732" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Head &amp; Shoulders Clean &amp; Balanced Conditioner 850ml' is 4987176174543. ([mattblatt.com.au](https://www.mattblatt.com.au/mb/buy/deal-first-head-shoulders-clean-balanced-conditioner-850ml-8614534480084/?utm_source=openai))</t>
+          <t>4987176174543</t>
         </is>
       </c>
     </row>
@@ -20478,7 +20478,7 @@
       </c>
       <c r="E743" t="inlineStr">
         <is>
-          <t>The barcode for Cutex Nail Polish Remover Strengthening 100ml in Australia is 309971370250. ([mydeal.com.au](https://www.mydeal.com.au/cutex-care-strength-shield-nail-polish-remover-100ml-14925521?utm_source=openai))</t>
+          <t>309971370250</t>
         </is>
       </c>
     </row>
@@ -20505,7 +20505,7 @@
       </c>
       <c r="E744" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Dove Beauty Cream Bar Gentle Exfoliating 4 x 90 g' is 8717163607305. ([superbuys.com.au](https://www.superbuys.com.au/dove-gentle-exfoliating-beauty-cream-bar-4pk?srsltid=AfmBOor4Au2dx3slpTsd5z3JnaT1-CTRyx1WCVyoOzooVgOCpYCtckmz&amp;utm_source=openai))</t>
+          <t>8717163607305</t>
         </is>
       </c>
     </row>
@@ -21639,7 +21639,7 @@
       </c>
       <c r="E786" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Cadbury Dairy Milk Chocolate Caramello Bites Snack &amp; Share Bag 142g' is 9300617301097. ([inlanddistributors.com.au](https://www.inlanddistributors.com.au/shop?%24Sort=Age&amp;FilterType=Custom10&amp;FilterValue=MONDELEZ+AUSTRALIA+PTY+LTD&amp;utm_source=openai))</t>
+          <t>9300617301097</t>
         </is>
       </c>
     </row>
@@ -21801,7 +21801,7 @@
       </c>
       <c r="E792" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Cadbury Favourites Boxed Chocolate 820g' is 9300617304265. ([mydeal.com.au](https://www.mydeal.com.au/cadbury-favourites-820g-9867152?utm_source=openai))</t>
+          <t>9300617304265</t>
         </is>
       </c>
     </row>
@@ -21909,7 +21909,7 @@
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t>93666718</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -22310,7 +22310,7 @@
       </c>
       <c r="E811" t="inlineStr">
         <is>
-          <t>The Australian barcode for Dove Men+Care Sport Fresh Body &amp; Face Wash 1L is 6902088934007. ([superbuys.com.au](https://www.superbuys.com.au/dove-body-wash-sport-men-1l?utm_source=openai))</t>
+          <t>6902088934007</t>
         </is>
       </c>
     </row>
@@ -22337,7 +22337,7 @@
       </c>
       <c r="E812" t="inlineStr">
         <is>
-          <t>60021915</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -22445,7 +22445,7 @@
       </c>
       <c r="E816" t="inlineStr">
         <is>
-          <t>The barcode for Radiant Advanced+ Cleans &amp; Softens 5-In-1 Laundry Detergent Powder 1.8kg is 9300615092560. ([mydeal.com.au](https://www.mydeal.com.au/radiant-advanced-cleans-softens-5-in-1-laundry-liquid-detergent-1-8l-14791388?utm_source=openai))</t>
+          <t>9300615092560</t>
         </is>
       </c>
     </row>
@@ -22873,7 +22873,7 @@
       </c>
       <c r="E832" t="inlineStr">
         <is>
-          <t>The barcode for Dove Daily Care Shampoo 350mL in Australia is 8712561571388. ([barcode-list.com](https://barcode-list.com/barcode/EN/Search.htm?barcode=DAILY&amp;utm_source=openai))</t>
+          <t>8712561571388</t>
         </is>
       </c>
     </row>
@@ -22927,7 +22927,7 @@
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Simply Wize Apple Turnover Gluten Free 8 Pack' is 9343317000051. ([world.openfoodfacts.org](https://world.openfoodfacts.org/product/9343317000051/simply-wize?utm_source=openai))</t>
+          <t>9343317000051</t>
         </is>
       </c>
     </row>
@@ -23089,7 +23089,7 @@
       </c>
       <c r="E840" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Cadbury Dairy Milk Peppermint Bites Chocolate Snack &amp; Share 142g' is 9300617294573. ([treatsfromoz.com](https://www.treatsfromoz.com/products/cadbury-peppermint-bites-124g?utm_source=openai))</t>
+          <t>9300617294573</t>
         </is>
       </c>
     </row>
@@ -23143,7 +23143,7 @@
       </c>
       <c r="E842" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Colgate Teeth Whitening Toothpaste Optic White Enamel Care 100g' is 8850006950210. ([mattblatt.com.au](https://www.mattblatt.com.au/mb/buy/deal-first-colgate-optic-white-enamel-care-toothpaste-100g-8607922258132/?utm_source=openai))</t>
+          <t>8850006950210</t>
         </is>
       </c>
     </row>
@@ -23359,7 +23359,7 @@
       </c>
       <c r="E850" t="inlineStr">
         <is>
-          <t>The barcode for the 'Fairy Platinum Plus Fresh Dishwashing Tablets 56 pack' in Australia is 4987176123725. ([mydeal.com.au](https://www.mydeal.com.au/224-fairy-platinum-plus-dishwasher-capsules-lemon-4-x-56-pack-10230109?utm_source=openai))</t>
+          <t>4987176123725</t>
         </is>
       </c>
     </row>
@@ -23521,7 +23521,7 @@
       </c>
       <c r="E856" t="inlineStr">
         <is>
-          <t>The barcode for 'Aveeno Apple Cider Vinegar Clarifying Conditioner For Dull Hair 354ml' in Australia is 052800673052. ([ahpcpharmacyoutlet.com.au](https://www.ahpcpharmacyoutlet.com.au/products/aveeno-apple-cider-vinegar-blend-clarifying-conditioner-for-oily-dull-hair-354ml?utm_source=openai))</t>
+          <t>052800673052</t>
         </is>
       </c>
     </row>
@@ -23683,7 +23683,7 @@
       </c>
       <c r="E862" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Harpic Blue Power Floral Sensations Toilet Cleaner Block 1 Pack' is 9300701823948. ([kgelectronic.com.au](https://www.kgelectronic.com.au/p/Home-Garden/Cleaning-Housekeeping/Cleaning-Products/6PK-Harpic-Blue-Power-Toilet-Bowl-Cleaner-Blue-Wat/3116620_6PK?utm_source=openai))</t>
+          <t>9300701823948</t>
         </is>
       </c>
     </row>
@@ -24547,7 +24547,7 @@
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Colgate Bamboo Charcoal Toothbrush 2 Pack is 8850006932537. ([catandclaudias.com.au](https://catandclaudias.com.au/colgate-bamboo-charcoal-toothbrush-2-pack-8850006932537?utm_source=openai))</t>
+          <t>8850006932537</t>
         </is>
       </c>
     </row>
@@ -24628,7 +24628,7 @@
       </c>
       <c r="E897" t="inlineStr">
         <is>
-          <t>The barcode for Frisp Minis Strawberry Diced Crisps 7g x 5 pack is 9349580000026. ([woolworths.com.au](https://www.woolworths.com.au/shop/productdetails/104292/frisp-minis-strawberry-diced-crisps?srsltid=AfmBOorOeR2h8-jX6kYdgMQbzwI1nd1QoUoiiMT-KGPWi-EipF3jLTd9&amp;utm_source=openai))</t>
+          <t>9349580000026</t>
         </is>
       </c>
     </row>
@@ -24682,7 +24682,7 @@
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t>The Australian barcode for the MCoBeauty Lip Gloss Trio 3 In 1 Gloss Keyring Assorted Each is 9331880013738. ([target.com](https://www.target.com/p/mcobeauty-3-in-1-gloss-keyring-lip-gloss-0-08-fl-oz/-/A-93213238?utm_source=openai))</t>
+          <t>9331880013738</t>
         </is>
       </c>
     </row>
@@ -24871,7 +24871,7 @@
       </c>
       <c r="E906" t="inlineStr">
         <is>
-          <t>The barcode for Head &amp; Shoulders Cool Menthol Anti Dandruff Shampoo 850mL in Australia is 0636601916176. ([ebay.com.au](https://www.ebay.com.au/itm/274257927312?utm_source=openai))</t>
+          <t>0636601916176</t>
         </is>
       </c>
     </row>
@@ -24898,7 +24898,7 @@
       </c>
       <c r="E907" t="inlineStr">
         <is>
-          <t>The barcode for Head &amp; Shoulders Dry Scalp Care Anti Dandruff Shampoo 850mL in Australia is 4987176229748. ([mattblatt.com.au](https://www.mattblatt.com.au/mb/buy/deal-first-head-shoulders-dry-scalp-care-anti-dandruff-shampoo-850ml-8614514294996/?utm_source=openai))</t>
+          <t>4987176229748</t>
         </is>
       </c>
     </row>
@@ -25033,7 +25033,7 @@
       </c>
       <c r="E912" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'being Bye Bye Frizz Smoothing Conditioner 354mL' is 840191606441. ([ebay.com.au](https://www.ebay.com.au/itm/256888253949?utm_source=openai))</t>
+          <t>840191606441</t>
         </is>
       </c>
     </row>
@@ -25384,7 +25384,7 @@
       </c>
       <c r="E925" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Cadbury Favourites Boxed Chocolate 820g' is 9300617304265. ([mydeal.com.au](https://www.mydeal.com.au/cadbury-favourites-820g-9867152?utm_source=openai))</t>
+          <t>9300617304265</t>
         </is>
       </c>
     </row>
@@ -25465,7 +25465,7 @@
       </c>
       <c r="E928" t="inlineStr">
         <is>
-          <t>The Australian barcode for Dove Intensive Repair Conditioner For Damaged Hair 350mL is 6281006597587. ([mydeal.com.au](https://www.mydeal.com.au/dove-intensive-repair-conditioner-for-damaged-hair-350ml-14942002?utm_source=openai))</t>
+          <t>6281006597587</t>
         </is>
       </c>
     </row>
@@ -25492,7 +25492,7 @@
       </c>
       <c r="E929" t="inlineStr">
         <is>
-          <t>The barcode for Head &amp; Shoulders Apple Fresh Anti-Dandruff Shampoo 750mL in Australia is 4902430411738. ([superbuys.com.au](https://www.superbuys.com.au/head-shoulders-apple-fresh-anti-dandruff-shampoo-7?utm_source=openai)) For the 500mL variant, the barcode is 5410076230280. ([upcitemdb.com](https://www.upcitemdb.com/upc/5410076230280?utm_source=openai)) However, I couldn't find the specific barcode for the 850mL size.</t>
+          <t>4902430411738</t>
         </is>
       </c>
     </row>
@@ -25600,7 +25600,7 @@
       </c>
       <c r="E933" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Cadbury Chomp Milk Chocolate Bar 30g is 9300617323419. ([sweetmemoriesdelivered.uk](https://www.sweetmemoriesdelivered.uk/cadbury-chomp--30g---australian--38158-p.asp?utm_source=openai))</t>
+          <t>9300617323419</t>
         </is>
       </c>
     </row>
@@ -25789,7 +25789,7 @@
       </c>
       <c r="E940" t="inlineStr">
         <is>
-          <t>The Australian barcode for Aveeno Baby Daily Moisture Fragrance Free Sensitive Baby Lotion 532ml is 381371019410. ([chemistwarehouse.com.au](https://www.chemistwarehouse.com.au/buy/84027/aveeno-baby-daily-moisturising-fragrance-free-lotion-532ml?utm_source=openai))</t>
+          <t>381371019410</t>
         </is>
       </c>
     </row>
@@ -25816,7 +25816,7 @@
       </c>
       <c r="E941" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Cadbury Milk Tray Boxed Chocolate 360g' is 7622201799076. ([barcode-list.com](https://barcode-list.com/barcode/EN/barcode-7622201799076/Search.htm?utm_source=openai))</t>
+          <t>7622201799076</t>
         </is>
       </c>
     </row>
@@ -25924,7 +25924,7 @@
       </c>
       <c r="E945" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Mamee Rice Snacks Sticks Cheese Flavour 200g' is 9557062400572. ([mydeal.com.au](https://www.mydeal.com.au/mamee-monster-rice-sticks-cheese-flavour-chips-snacks-10-pack-12438898?utm_source=openai))</t>
+          <t>9557062400572</t>
         </is>
       </c>
     </row>
@@ -26086,7 +26086,7 @@
       </c>
       <c r="E951" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'being Bye Bye Frizz Smoothing Shampoo 354mL' is 6004910. ([bigw.com.au](https://www.bigw.com.au/product/being-bye-bye-frizz-smoothing-shampoo-354ml/p/6004910?srsltid=AfmBOoou-mVtw1l9r9NNgHwa10EwcvBxVw22brW87xsb2lCRhtSS7Pre&amp;utm_source=openai))</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -26140,7 +26140,7 @@
       </c>
       <c r="E953" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Cadbury Dairy Milk Strawberry Bites Chocolate Snack &amp; Share 142g' is 9300617301073. ([world.openfoodfacts.org](https://world.openfoodfacts.org/product/9300617301073/dairy-milk-strawberry-bites-cadbury?utm_source=openai))</t>
+          <t>9300617301073</t>
         </is>
       </c>
     </row>
@@ -26329,7 +26329,7 @@
       </c>
       <c r="E960" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Morning Fresh Dishwashing Liquid Strawberry &amp; Guava 400ml' is 9300615067377. ([boutiqueretailer.com.au](https://www.boutiqueretailer.com.au/morning-fresh-dishwashing-liquid-ultra-concentrate?utm_source=openai))</t>
+          <t>9300615067377</t>
         </is>
       </c>
     </row>
@@ -27031,7 +27031,7 @@
       </c>
       <c r="E986" t="inlineStr">
         <is>
-          <t>The barcode for Dove Women's Deodorant Zero Roll On Original 50mL in Australia is 0000093575294. ([mydeal.com.au](https://www.mydeal.com.au/dove-0-aluminium-original-deodorant-roll-on-50ml-14921875?utm_source=openai))</t>
+          <t>0000093575294</t>
         </is>
       </c>
     </row>
@@ -27166,7 +27166,7 @@
       </c>
       <c r="E991" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Oral-B Sensitivity &amp; Gum Care Gentle Whitening Toothpaste 90g' is 4902430925679. ([mydeal.com.au](https://www.mydeal.com.au/oral-b-toothpaste-sensitivity-and-gum-all-day-protection-90g-14576906?utm_source=openai))</t>
+          <t>4902430925679</t>
         </is>
       </c>
     </row>
@@ -27328,7 +27328,7 @@
       </c>
       <c r="E997" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'White Glo Professional Choice Toothpaste Extra Strength Whitening 150g' is 9319871000042. ([superbuys.com.au](https://www.superbuys.com.au/white-glo-professional-choice-150g?utm_source=openai))</t>
+          <t>9319871000042</t>
         </is>
       </c>
     </row>
@@ -27355,7 +27355,7 @@
       </c>
       <c r="E998" t="inlineStr">
         <is>
-          <t>The barcode for Dove Daily Care Conditioner 350mL in Australia is 6281006443631. ([albaharonline.com](https://albaharonline.com/Store/6281006443631.html?utm_source=openai))</t>
+          <t>6281006443631</t>
         </is>
       </c>
     </row>
@@ -27463,7 +27463,7 @@
       </c>
       <c r="E1002" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Head &amp; Shoulders 2-in-1 Shampoo &amp; Conditioner Men Sport Fresh 750mL' is 4987176229649. ([mattblatt.com.au](https://www.mattblatt.com.au/mb/buy/deal-first-head-shoulders-2-in-1-shampoo-conditioner-men-sport-fresh-750ml-8614515671252/?utm_source=openai))</t>
+          <t>4987176229649</t>
         </is>
       </c>
     </row>
@@ -27571,7 +27571,7 @@
       </c>
       <c r="E1006" t="inlineStr">
         <is>
-          <t>The Australian barcode for the 'Oral-B Vitality Electric Toothbrush Kids Set each' is 671717090990. ([mydeal.com.au](https://www.mydeal.com.au/oral-b-vitality-electric-toothbrush-kids-set-each-14244717?utm_source=openai))</t>
+          <t>671717090990</t>
         </is>
       </c>
     </row>
@@ -28242,7 +28242,7 @@
       </c>
       <c r="E1031" t="inlineStr">
         <is>
-          <t>93565127</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -28269,7 +28269,7 @@
       </c>
       <c r="E1032" t="inlineStr">
         <is>
-          <t>The barcode for 'Thanks To Nature Cool Curls Curling Gel 150mL' is 9342746005644. ([dicksmith.com.au](https://www.dicksmith.com.au/da/buy/deal-first-thanks-to-nature-cool-curls-curling-balm-with-aloe-150ml-8650551886036/?utm_source=openai))</t>
+          <t>9342746005644</t>
         </is>
       </c>
     </row>
@@ -28485,7 +28485,7 @@
       </c>
       <c r="E1040" t="inlineStr">
         <is>
-          <t>The barcode for L'Oreal Paris Elvive Extraordinary Oil Coconut Shampoo 340ml in Australia is 8901526641871. ([thewarehouse.co.nz](https://www.thewarehouse.co.nz/p/loreal-paris-elvive-extraordinary-oil-coconut-shampoo-340ml/R2997229.html?utm_source=openai))</t>
+          <t>8901526641871</t>
         </is>
       </c>
     </row>
@@ -28963,7 +28963,7 @@
       </c>
       <c r="E1058" t="inlineStr">
         <is>
-          <t>The Australian barcode for Gillette Pure Shaving Cream For Men 170g is 047400666252. ([vitalpharmacysupplies.com.au](https://vitalpharmacysupplies.com.au/products/gillette-pure-shaving-cream-177ml?utm_source=openai))</t>
+          <t>047400666252</t>
         </is>
       </c>
     </row>
@@ -28990,7 +28990,7 @@
       </c>
       <c r="E1059" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Jack The Barber Body Spray Deodorant Nomad 150mL' is 9342746007457. ([kogan.com](https://www.kogan.com/au/buy/deal-first-jack-the-barber-body-spray-deodorant-nomad-150ml-8644989845716/?utm_source=openai))</t>
+          <t>9342746007457</t>
         </is>
       </c>
     </row>
@@ -29017,7 +29017,7 @@
       </c>
       <c r="E1060" t="inlineStr">
         <is>
-          <t>The barcode for Morning Fresh Dishwashing Liquid Raspberry &amp; Crisp Apple 900mL is 9300615582306. ([giantchemistharbourtown.com.au](https://www.giantchemistharbourtown.com.au/cussons-morning-fresh-dishwashing-liquid-raspberry-apple-900ml?utm_source=openai))</t>
+          <t>9300615582306</t>
         </is>
       </c>
     </row>
@@ -29233,7 +29233,7 @@
       </c>
       <c r="E1068" t="inlineStr">
         <is>
-          <t>The barcode for the Sistema Klip It Plus 2.2L Square Container is 9414202883346. ([cdn.loot.co.za](https://cdn.loot.co.za/product/sistema-klip-it-plus-2-2l-square/vkkx-7247-g500?utm_source=openai))</t>
+          <t>9414202883346</t>
         </is>
       </c>
     </row>
@@ -29881,7 +29881,7 @@
       </c>
       <c r="E1092" t="inlineStr">
         <is>
-          <t>The barcode for UnMeat Plant Based Luncheon Meat Classic 330g is 748485780139. ([charmingfoods.store](https://charmingfoods.store/product/unmeat-meat-free-luncheon-meat-12-oz/?utm_source=openai))</t>
+          <t>748485780139</t>
         </is>
       </c>
     </row>
@@ -30043,7 +30043,7 @@
       </c>
       <c r="E1098" t="inlineStr">
         <is>
-          <t>The barcode for Aveeno Fresh Greens Blend Volumising Shampoo For Fine Hair 354ml is 052800673106. ([upcitemdb.com](https://www.upcitemdb.com/upc/52800673106?utm_source=openai))</t>
+          <t>052800673106</t>
         </is>
       </c>
     </row>
@@ -30394,7 +30394,7 @@
       </c>
       <c r="E1111" t="inlineStr">
         <is>
-          <t>93565028</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -30475,7 +30475,7 @@
       </c>
       <c r="E1114" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Vanish Gold Stain Remover Powder 2kg' is 9300701124410. ([mydeal.com.au](https://www.mydeal.com.au/vanish-napisan-gold-oxi-action-stain-remover-powder-2kg-14795093?utm_source=openai))</t>
+          <t>9300701124410</t>
         </is>
       </c>
     </row>
@@ -30529,7 +30529,7 @@
       </c>
       <c r="E1116" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Colgate 360° Advanced Optic White 4 Pack is 8850006943892. ([mydeal.com.au](https://www.mydeal.com.au/colgate-360-advanced-optic-white-toothbrush-4pk-11686270?utm_source=openai))</t>
+          <t>8850006943892</t>
         </is>
       </c>
     </row>
@@ -30610,7 +30610,7 @@
       </c>
       <c r="E1119" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Cuddly Concentrate Fabric Conditioner Complete Care Ocean Wave 850ml' is 9300632089376. ([kogan.com](https://www.kogan.com/au/buy/deal-first-cuddly-ultra-fabric-softener-aroma-intense-rose-850ml-8608037535956/?utm_source=openai))</t>
+          <t>9300632089376</t>
         </is>
       </c>
     </row>
@@ -30853,7 +30853,7 @@
       </c>
       <c r="E1128" t="inlineStr">
         <is>
-          <t>93565387</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -30934,7 +30934,7 @@
       </c>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Colgate Max White Medium Manual Toothbrush 3 Pack is 8850006933312. ([mydeal.com.au](https://www.mydeal.com.au/colgate-max-white-medium-manual-toothbrush-3-pack-14002491?utm_source=openai))</t>
+          <t>8850006933312</t>
         </is>
       </c>
     </row>
@@ -31069,7 +31069,7 @@
       </c>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>The barcode for Head &amp; Shoulders Instant Oil Control Anti Dandruff Shampoo 850mL in Australia is 4987176038548. ([kgelectronic.com.au](https://www.kgelectronic.com.au/p/6PK-Head-Shoulders-660ml-Anti-Dandruff-Shampoo-Oil/80780174_6PK?utm_source=openai))</t>
+          <t>4987176038548</t>
         </is>
       </c>
     </row>
@@ -31150,7 +31150,7 @@
       </c>
       <c r="E1139" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Cadbury Favourites Boxed Chocolate 820g' is 9300617304265. ([mydeal.com.au](https://www.mydeal.com.au/cadbury-favourites-820g-9867152?utm_source=openai))</t>
+          <t>9300617304265</t>
         </is>
       </c>
     </row>
@@ -31551,7 +31551,7 @@
       </c>
       <c r="E1154" t="inlineStr">
         <is>
-          <t>70177225926</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -31632,7 +31632,7 @@
       </c>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Elvive Total Repair 5 Shampoo 340mL' is 3600523972234. ([chemistwarehouse.com.au](https://www.chemistwarehouse.com.au/buy/149730/l-oreal-elvive-total-repair-5-shampoo-340ml?utm_source=openai))</t>
+          <t>3600523972234</t>
         </is>
       </c>
     </row>
@@ -31686,7 +31686,7 @@
       </c>
       <c r="E1159" t="inlineStr">
         <is>
-          <t>The barcode for 'Head &amp; Shoulders 2-in-1 Shampoo &amp; Conditioner Apple Fresh 350mL' in Australia is 4987176229724. ([thewarehouse.co.nz](https://www.thewarehouse.co.nz/p/head-shoulders-apple-fresh-2-n-1-350ml/R2915116.html?utm_source=openai))</t>
+          <t>4987176229724</t>
         </is>
       </c>
     </row>
@@ -31794,7 +31794,7 @@
       </c>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>The Australian barcode (GTIN) for Maybelline Instant Age Rewind Dark Circle Concealer in shade 00 Ivory (6ml) is 9344329164045. ([mydeal.com.au](https://www.mydeal.com.au/maybelline-instant-age-rewind-eraser-multi-use-concealer-6ml-100-ivory-10740626?utm_source=openai))</t>
+          <t>9344329164045</t>
         </is>
       </c>
     </row>
@@ -31875,7 +31875,7 @@
       </c>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Nature's Way Vitagummies For Adults Multi-Vitamin 120 pack' is 9314807025533. ([ebay.com](https://www.ebay.com/p/1709879582?utm_source=openai))</t>
+          <t>9314807025533</t>
         </is>
       </c>
     </row>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>93567954</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -32010,7 +32010,7 @@
       </c>
       <c r="E1171" t="inlineStr">
         <is>
-          <t>93568777</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -32280,7 +32280,7 @@
       </c>
       <c r="E1181" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Cadbury Favourites Boxed Chocolate 820g' is 9300617304265. ([mydeal.com.au](https://www.mydeal.com.au/cadbury-favourites-820g-9867152?utm_source=openai))</t>
+          <t>9300617304265</t>
         </is>
       </c>
     </row>
@@ -32469,7 +32469,7 @@
       </c>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>The Australian barcode for Maybelline Fit Me Matte &amp; Poreless Foundation in shade 220 Natural Beige, 30ml, is 9344329095035. ([mydeal.com.au](https://www.mydeal.com.au/maybelline-fit-me-matte-poreless-foundation-30ml-220-natural-beige-13408944?utm_source=openai))</t>
+          <t>9344329095035</t>
         </is>
       </c>
     </row>
@@ -32951,7 +32951,7 @@
       </c>
       <c r="E1206" t="inlineStr">
         <is>
-          <t>The Australian barcode for Maybelline Fit Me Matte &amp; Poreless Foundation in shade 120 Classic Ivory (30ml) is 041554433449. ([mydeal.com.au](https://www.mydeal.com.au/maybelline-fit-me-matte-poreless-foundation-classic-ivory-120-11173036?utm_source=openai))</t>
+          <t>041554433449</t>
         </is>
       </c>
     </row>
@@ -33896,7 +33896,7 @@
       </c>
       <c r="E1241" t="inlineStr">
         <is>
-          <t>93565011</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -34058,7 +34058,7 @@
       </c>
       <c r="E1247" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Clairol Root Touch Up Permanent 5 Medium Brown Hair Colour each' is 4056800252008. ([mydeal.com.au](https://www.mydeal.com.au/clairol-nice-n-easy-root-touch-up-permanent-hair-colour-medium-brown-11967250?utm_source=openai))</t>
+          <t>4056800252008</t>
         </is>
       </c>
     </row>
@@ -34355,7 +34355,7 @@
       </c>
       <c r="E1258" t="inlineStr">
         <is>
-          <t>The Australian barcode for Lipton Green Tea Bags 100 pack is 5063305001894. ([officeworks.com.au](https://www.officeworks.com.au/shop/officeworks/p/lipton-green-tea-bags-100-pack-le04057006?utm_source=openai))</t>
+          <t>5063305001894</t>
         </is>
       </c>
     </row>
@@ -34571,7 +34571,7 @@
       </c>
       <c r="E1266" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Cadbury Favourites Boxed Chocolate 820g' is 9300617304265. ([mydeal.com.au](https://www.mydeal.com.au/cadbury-favourites-820g-9867152?utm_source=openai))</t>
+          <t>9300617304265</t>
         </is>
       </c>
     </row>
@@ -34841,7 +34841,7 @@
       </c>
       <c r="E1276" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Cadbury Chomp Milk Chocolate Bar 30g is 9300617323419. ([campbells.com.au](https://www.campbells.com.au/convenience/confectionery-%26-snacks/chocolate/chomp-wafer-biscuit-chocolate/0000431170_890?utm_source=openai))</t>
+          <t>9300617323419</t>
         </is>
       </c>
     </row>
@@ -35080,7 +35080,7 @@
       <c r="D1285" t="inlineStr"/>
       <c r="E1285" t="inlineStr">
         <is>
-          <t>70330726550</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -35269,7 +35269,7 @@
       </c>
       <c r="E1292" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Gillette Blue II Plus Disposable Razors 20 Pack is 9300627505973. ([coffsharbourofficesupplies.com.au](https://www.coffsharbourofficesupplies.com.au/gillette-blue-ii-plus-disposable-razors-pack-of-20?utm_source=openai))</t>
+          <t>9300627505973</t>
         </is>
       </c>
     </row>
@@ -35431,7 +35431,7 @@
       </c>
       <c r="E1298" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'L'Or Coffee Artiste 5 Delicato 95g' is 734071029065. ([mydeal.com.au](https://www.mydeal.com.au/l-or-coffee-artiste-5-delicato-95g-12718134?utm_source=openai))</t>
+          <t>734071029065</t>
         </is>
       </c>
     </row>
@@ -35512,7 +35512,7 @@
       </c>
       <c r="E1301" t="inlineStr">
         <is>
-          <t>The barcode for 'Maui Moisture Coconut Oil Curl Smoothie Hair Mask For Curly Hair 340g' is 022796180049. ([catandclaudias.com.au](https://catandclaudias.com.au/maui-moisture-curl-quench-coconut-oil-curl-enhancing-smoothie-hair-treatment-340g-022796180049?utm_source=openai))</t>
+          <t>022796180049</t>
         </is>
       </c>
     </row>
@@ -35539,7 +35539,7 @@
       </c>
       <c r="E1302" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Nivea Lip Care &amp; Protection SPF 50+ 4.8g' is 4005900347893. ([catandclaudias.com.au](https://catandclaudias.com.au/nivea-lip-balm-ultra-care-protect-spf-30-48g-4005900347893?utm_source=openai))</t>
+          <t>4005900347893</t>
         </is>
       </c>
     </row>
@@ -35728,7 +35728,7 @@
       </c>
       <c r="E1309" t="inlineStr">
         <is>
-          <t>93565653</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -35971,7 +35971,7 @@
       </c>
       <c r="E1318" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Clairol Nice 'N Easy Permanent 6R Light Auburn Hair Colour each' is 4064666234335. ([cincottachemist.com.au](https://www.cincottachemist.com.au/shop/100702-clairol-nice-n-easy-6r-light-auburn-4064666234335.html?utm_source=openai))</t>
+          <t>4064666234335</t>
         </is>
       </c>
     </row>
@@ -36183,7 +36183,7 @@
       </c>
       <c r="E1326" t="inlineStr">
         <is>
-          <t>The Australian barcode for L'Oréal Paris Elvive Extraordinary Oil Coconut Conditioner 340mL is 8901526641796. ([lorealparis.com.au](https://www.lorealparis.com.au/elvive/extraordinary-oil/coconut-conditioner-340ml?utm_source=openai))</t>
+          <t>8901526641796</t>
         </is>
       </c>
     </row>
@@ -36399,7 +36399,7 @@
       </c>
       <c r="E1334" t="inlineStr">
         <is>
-          <t>The barcode for 'OGX Argan Oil Conditioner For Dry &amp; Damaged Hair 385mL' is 022796916129. ([discountchemist.com.au](https://discountchemist.com.au/ogx-renewing-argan-oil-of-morocco-conditioner-385ml/?utm_source=openai))</t>
+          <t>022796916129</t>
         </is>
       </c>
     </row>
@@ -36854,7 +36854,7 @@
       </c>
       <c r="E1351" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Head &amp; Shoulders 2-in-1 Shampoo &amp; Conditioner Smooth &amp; Silky 750mL' is 4987176229694. ([mattblatt.com.au](https://www.mattblatt.com.au/mb/buy/deal-first-head-shoulders-2-in-1-shampoo-conditioner-smooth-silky-750ml-8614514950356/?utm_source=openai))</t>
+          <t>4987176229694</t>
         </is>
       </c>
     </row>
@@ -36935,7 +36935,7 @@
       </c>
       <c r="E1354" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Cadbury Favourites Boxed Chocolate 820g' is 9300617304265. ([mydeal.com.au](https://www.mydeal.com.au/cadbury-favourites-820g-9867152?utm_source=openai))</t>
+          <t>9300617304265</t>
         </is>
       </c>
     </row>
@@ -37016,7 +37016,7 @@
       </c>
       <c r="E1357" t="inlineStr">
         <is>
-          <t>The Australian barcode for L'Oreal Excellence Creme Hair Colour 5.3 Golden Brown is 9312825500926. ([pharmacy4less.com.au](https://pharmacy4less.com.au/loreal-paris-excellence-5-3-golden-brown/?utm_source=openai))</t>
+          <t>9312825500926</t>
         </is>
       </c>
     </row>
@@ -37363,7 +37363,7 @@
       </c>
       <c r="E1370" t="inlineStr">
         <is>
-          <t>The barcode for OGX Coconut Curls Shampoo For Curly Hair 385mL in Australia is 022796900906. ([vitalpharmacysupplies.com.au](https://vitalpharmacysupplies.com.au/products/ogx-quenching-coconut-curls-shampoo-for-curly-hair-385ml?utm_source=openai))</t>
+          <t>022796900906</t>
         </is>
       </c>
     </row>
@@ -37417,7 +37417,7 @@
       </c>
       <c r="E1372" t="inlineStr">
         <is>
-          <t>The barcode for Pantene Pro-V Colour Protection Conditioner 900ml in Australia is 4902430931212. ([chemistwarehouse.com.au](https://www.chemistwarehouse.com.au/buy/75904/Pantene-Colour-Therapy-Conditioner-900ml?utm_source=openai))</t>
+          <t>4902430931212</t>
         </is>
       </c>
     </row>
@@ -37498,7 +37498,7 @@
       </c>
       <c r="E1375" t="inlineStr">
         <is>
-          <t>The barcode for Sally Hansen Insta-Dri Pink Blink Nail Polish is 0074170453997. ([directionsforme.org](https://www.directionsforme.org/product/148410?utm_source=openai))</t>
+          <t>0074170453997</t>
         </is>
       </c>
     </row>
@@ -37579,7 +37579,7 @@
       </c>
       <c r="E1378" t="inlineStr">
         <is>
-          <t>93564687</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -37633,7 +37633,7 @@
       </c>
       <c r="E1380" t="inlineStr">
         <is>
-          <t>93565660</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -37845,7 +37845,7 @@
       </c>
       <c r="E1388" t="inlineStr">
         <is>
-          <t>The barcode for Dove Intensive Repair Conditioner For Damaged Hair 850mL in Australia is 8851932348393. ([dove.com](https://www.dove.com/au/p/intensive-repair-conditioner.html/08851932348393?utm_source=openai))</t>
+          <t>8851932348393</t>
         </is>
       </c>
     </row>
@@ -38007,7 +38007,7 @@
       </c>
       <c r="E1394" t="inlineStr">
         <is>
-          <t>The barcode for 'John Frieda Profiller+ Thickening Shampoo For Fine Hair 250ml' in Australia is 5037156285314. ([dicksmith.com.au](https://www.dicksmith.com.au/da/buy/cutprice-pharmacy-john-frieda-profiller-thickening-shampoo-250ml-8884531691757/?utm_source=openai))</t>
+          <t>5037156285314</t>
         </is>
       </c>
     </row>
@@ -38277,7 +38277,7 @@
       </c>
       <c r="E1404" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Oral-B iO Ultimate Clean Electric Toothbrush Refill 2 Pack is 4210201334958. ([mightyape.com.au](https://www.mightyape.com.au/ma/buy/mighty-ape-oral-b-io-ultimate-clean-2-pack-replacement-brush-head-black-cb-2-37938100/?utm_source=openai))</t>
+          <t>4210201334958</t>
         </is>
       </c>
     </row>
@@ -38520,7 +38520,7 @@
       </c>
       <c r="E1413" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Thanks To Nature Smooth &amp; Control Shampoo With Keratin 500ml' is 9342746001592. ([grocerize.com.au](https://grocerize.com.au/products/9342746001592?utm_source=openai))</t>
+          <t>9342746001592</t>
         </is>
       </c>
     </row>
@@ -38597,7 +38597,7 @@
       <c r="D1416" t="inlineStr"/>
       <c r="E1416" t="inlineStr">
         <is>
-          <t>The barcode for 'Bonds Instatan Sheer Stockings Slim Tight Light Brown Large Each' is 9312997695116. ([ebay.com.au](https://www.ebay.com.au/p/27069546431?srsltid=AfmBOopjPhDV-lKQwbXsvppyE4G1ayY-uc_APubEL9gwBVC6H5zSCh09&amp;utm_source=openai))</t>
+          <t>9312997695116</t>
         </is>
       </c>
     </row>
@@ -38624,7 +38624,7 @@
       </c>
       <c r="E1417" t="inlineStr">
         <is>
-          <t>The product code for the Bonds Men's Logo Quarter Crew 3 Pack in size 11+ is SXFC3N. ([bonds.com.au](https://www.bonds.com.au/mens-logo-quarter-crew-3-pack-charcoal-oatmeal-natural-sxfc3n-01k.html?utm_source=openai)) However, the specific barcode number for this product is not available in the provided sources.</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -38705,7 +38705,7 @@
       </c>
       <c r="E1420" t="inlineStr">
         <is>
-          <t>The Australian barcode for Dove Daily Care Shampoo 850mL is 9300830006151. ([buycott.com](https://www.buycott.com/upc/9300830006151?utm_source=openai))</t>
+          <t>9300830006151</t>
         </is>
       </c>
     </row>
@@ -38732,7 +38732,7 @@
       </c>
       <c r="E1421" t="inlineStr">
         <is>
-          <t>The Australian barcode for Dove Nourishing Moisture Conditioner 350mL is 8851932348386. ([woolworths.com.au](https://www.woolworths.com.au/shop/productdetails/6004394?utm_source=openai))</t>
+          <t>8851932348386</t>
         </is>
       </c>
     </row>
@@ -38759,7 +38759,7 @@
       </c>
       <c r="E1422" t="inlineStr">
         <is>
-          <t>The Australian barcode for Dove Restoring Ritual Shampoo 350mL is 9300830043064. ([dove.com](https://www.dove.com/au/p/restoring-ritual-shampoo.html/09300830043064?utm_source=openai))</t>
+          <t>9300830043064</t>
         </is>
       </c>
     </row>
@@ -38786,7 +38786,7 @@
       </c>
       <c r="E1423" t="inlineStr">
         <is>
-          <t>The barcode for 'Fudge Professional Clean Blonde Toning Purple Conditioner 250ml' is 5060420335804. ([cfdirect.com.au](https://cfdirect.com.au/products/fudgeprofessionalcleanblondeviolet-toningconditioner250ml?utm_source=openai))</t>
+          <t>5060420335804</t>
         </is>
       </c>
     </row>
@@ -38894,7 +38894,7 @@
       </c>
       <c r="E1427" t="inlineStr">
         <is>
-          <t>The barcode for 'L'Or Coffee Artiste 8 Vigoroso 95g' in Australia is 734071584489. ([mydeal.com.au](https://www.mydeal.com.au/l-or-coffee-artiste-8-vigoroso-95g-14878170?utm_source=openai))</t>
+          <t>734071584489</t>
         </is>
       </c>
     </row>
@@ -39110,7 +39110,7 @@
       </c>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Maui Moisture Coconut Oil Conditioner For Curly Hair 385ml' is 022796180025. ([catandclaudias.com.au](https://catandclaudias.com.au/maui-moisture-curl-quench-coconut-oil-conditioner-385ml-022796180025?utm_source=openai))</t>
+          <t>022796180025</t>
         </is>
       </c>
     </row>
@@ -39461,7 +39461,7 @@
       </c>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>The barcode for the Sistema Klip It Plus Rectangle 3.35L 2 Pack in Australia is 9414202888327. ([dicksmith.co.nz](https://www.dicksmith.co.nz/dn/buy/mighty-ape-sistema-klip-it-plus-335l-rectangle-2-pack-34012902/?utm_source=openai))</t>
+          <t>9414202888327</t>
         </is>
       </c>
     </row>
@@ -39542,7 +39542,7 @@
       </c>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Vitasoy Oat Yoghurt Blueberry 140g' is 9341650002398. ([woolworths.com.au](https://www.woolworths.com.au/shop/productdetails/6004136/vitasoy-oat-yoghurt-blueberry?srsltid=AfmBOoq1WrqFOZTYXFIkK4jeXSW7GfS1ISixuzunZYfP-saEyfDLkMyM&amp;utm_source=openai))</t>
+          <t>9341650002398</t>
         </is>
       </c>
     </row>
@@ -39758,7 +39758,7 @@
       </c>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Biozet Attack Laundry Powder With Softener 2kg' is 4710363961127. ([dicksmith.com.au](https://www.dicksmith.com.au/da/buy/deal-first-biozet-attack-laundry-powder-with-softener-2kg-8606167367892/?utm_source=openai))</t>
+          <t>4710363961127</t>
         </is>
       </c>
     </row>
@@ -39808,7 +39808,7 @@
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Women's Cottontails Full Brief 2 Pack in size 16 is 9334693350724. ([ebay.co.uk](https://www.ebay.co.uk/p/11008711220?utm_source=openai))</t>
+          <t>9334693350724</t>
         </is>
       </c>
     </row>
@@ -39862,7 +39862,7 @@
       </c>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>The Australian barcode for Clairol Root Touch-Up Medium Brown is 4056800252008. ([chemistwarehouse.com.au](https://www.chemistwarehouse.com.au/buy/53139/clairol-nice-n-easy-root-touch-up-permanent-hair-colour-medium-brown?utm_source=openai))</t>
+          <t>4056800252008</t>
         </is>
       </c>
     </row>
@@ -39916,7 +39916,7 @@
       </c>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Dove Men+Care Advanced Aerosol Antiperspirant Extra Fresh 72h 250 mL' is 9300830087914. ([kogan.com](https://www.kogan.com/au/buy/deal-first-dove-men-care-advanced-aerosol-antiperspirant-extra-fresh-72h-250-ml-8610047099092/?utm_source=openai))</t>
+          <t>9300830087914</t>
         </is>
       </c>
     </row>
@@ -39943,7 +39943,7 @@
       </c>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>The barcode for Dove Nourishing Moisture Shampoo 320ml in Australia is 8851932348300. ([boutiqueretailer.com.au](https://www.boutiqueretailer.com.au/products/dove-320ml-shampoo-nourishing-moisture-for-normal-to-dry-hair?utm_source=openai))</t>
+          <t>8851932348300</t>
         </is>
       </c>
     </row>
@@ -40159,7 +40159,7 @@
       </c>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>The Australian barcode for Maybelline Lash Sensational Serum 5.3ml is 3600531512880. ([dicksmith.com.au](https://www.dicksmith.com.au/da/buy/bella-scoop-maybelline-lash-sensational-lash-serum-8277557149914/?utm_source=openai))</t>
+          <t>3600531512880</t>
         </is>
       </c>
     </row>
@@ -40560,7 +40560,7 @@
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>The Australian barcode for the 'Razzamatazz Tan Anklet One Size 2 Pack' is 9356044065507. ([fruugoschweiz.com](https://www.fruugoschweiz.com/2-pack-razzamatazz-sheer-chevillelet-15-denier-femmes-collants-bas-chaussettes-h80044/p-141239108-298622306?utm_source=openai))</t>
+          <t>9356044065507</t>
         </is>
       </c>
     </row>
@@ -40614,7 +40614,7 @@
       </c>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>The barcode for the Schick Hydro Silk Women's Disposable Razor 2 Pack in Australia is 841058024002. ([buycott.com](https://www.buycott.com/upc/841058024002?utm_source=openai))</t>
+          <t>841058024002</t>
         </is>
       </c>
     </row>
@@ -40695,7 +40695,7 @@
       </c>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Cadbury Chomp Milk Chocolate Bar 30g is 9300617323419. ([sweetmemoriesdelivered.uk](https://www.sweetmemoriesdelivered.uk/cadbury-chomp--30g---australian--38158-p.asp?utm_source=openai))</t>
+          <t>9300617323419</t>
         </is>
       </c>
     </row>
@@ -41204,7 +41204,7 @@
       </c>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>The Australian barcode for Clairol Nice 'N Easy Permanent 9A Light Ash Blonde Hair Colour is 3614228806572. ([mydeal.com.au](https://www.mydeal.com.au/clairol-nice-n-easy-light-ash-blonde-no-9a-12237681?utm_source=openai))</t>
+          <t>3614228806572</t>
         </is>
       </c>
     </row>
@@ -41447,7 +41447,7 @@
       </c>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Head &amp; Shoulders Instant Oil Control 2In1 Anti Dandruff Shampoo &amp; Conditioner 750mL' is not available in the provided sources. However, the 400mL variant has the barcode 4987176038647. ([shopaholicmode.com.au](https://www.shopaholicmode.com.au/head-shoulders-anti-dandruff-shampoo-400ml-moistur~15766?utm_source=openai)) Additionally, the 550mL variant has the barcode 4987176072283. ([kgelectronic.com.au](https://www.kgelectronic.com.au/p/6PK-Head-And-Shoulders-550ml-Anti-Dandruff-Shampoo/80683958_6PK?utm_source=openai)) Please note that barcodes can vary by product size and region.</t>
+          <t>4987176038647</t>
         </is>
       </c>
     </row>
@@ -41771,7 +41771,7 @@
       </c>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'MCoBeauty Coconut Lip Balm No.1 Black Plum &amp; Vanilla 6.2g' is 9331880037048. ([mydeal.com.au](https://www.mydeal.com.au/mcobeauty-coco-lip-treatment-no-1-black-plum-vanilla-6-2g-14720734?utm_source=openai))</t>
+          <t>9331880037048</t>
         </is>
       </c>
     </row>
@@ -41987,7 +41987,7 @@
       </c>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>The Australian barcode for Maybelline Instant Age Rewind Concealer in shade 120 Light is 9344329130668. ([makeupinaustralia.com.au](https://makeupinaustralia.com.au/products/maybelline-instant-age-rewind-eraser-multi-use-concealer-6ml-120-light?utm_source=openai)) For shade 01 Light, the barcode is 041554259254. ([mydeal.com.au](https://www.mydeal.com.au/maybelline-instant-age-rewind-eraser-multi-use-concealer-6ml-120-light-10740624?utm_source=openai))</t>
+          <t>9344329130668</t>
         </is>
       </c>
     </row>
@@ -42384,7 +42384,7 @@
       <c r="D1557" t="inlineStr"/>
       <c r="E1557" t="inlineStr">
         <is>
-          <t>70330730274</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -42893,7 +42893,7 @@
       </c>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>The Australian barcode for Gerard Family Foods Organic Agave Sweetener 500g is 9311106999992. ([woolworths.com.au](https://www.woolworths.com.au/shop/productdetails/291075/gerard-family-foods-organic-agave-sweetener?srsltid=AfmBOooRukKRK6lTMjgB4F5dyotid1vKbbzx2r542KJQ07TT2adbjahk&amp;utm_source=openai))</t>
+          <t>9311106999992</t>
         </is>
       </c>
     </row>
@@ -43078,7 +43078,7 @@
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>The Australian barcode for the 'Inspire Ceramic Mug Assorted 4 Pack' is 9332519147015. ([kgelectronic.com.au](https://www.kgelectronic.com.au/p/Home-Garden/Kitchen-Dining-Bar/Dinnerware-Serveware/Mugs/4PK-Splosh-Teacher-Inspire-Ceramic-Mug-w-Handle-36/TCH2424_4PK?utm_source=openai))</t>
+          <t>9332519147015</t>
         </is>
       </c>
     </row>
@@ -43718,7 +43718,7 @@
       </c>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Toni &amp; Guy Prep Leave-In Conditioner 100ml' is 667803002862. ([chemistwarehouse.com.au](https://www.chemistwarehouse.com.au/buy/73340/toni-guy-prep-leave-in-conditioner-100ml?utm_source=openai))</t>
+          <t>667803002862</t>
         </is>
       </c>
     </row>
@@ -43849,7 +43849,7 @@
       </c>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Clairol Root Touch-Up Root Concealing Spray Medium Brown' is 3614226619686. ([mydeal.com.au](https://www.mydeal.com.au/clairol-nice-easy-root-touch-up-root-concealing-spray-medium-brown-14576114?utm_source=openai))</t>
+          <t>3614226619686</t>
         </is>
       </c>
     </row>
@@ -44281,7 +44281,7 @@
       </c>
       <c r="E1628" t="inlineStr">
         <is>
-          <t>The barcode for 'Head &amp; Shoulders 2 In 1 Smooth and Silky Anti Dandruff Shampoo &amp; Conditioner 350mL' in Australia is 4987176038395. ([chemistwarehouse.com.au](https://www.chemistwarehouse.com.au/buy/136735/head-shoulders-smooth-silky-2in1-shampoo-conditioner-350ml?utm_source=openai))</t>
+          <t>4987176038395</t>
         </is>
       </c>
     </row>
@@ -44632,7 +44632,7 @@
       </c>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>The barcode for 'Sally Hansen Hard As Nails Natural 13.3ml' is 0074170450835. ([onbuy.com](https://www.onbuy.com/gb/p/sally-hansen-hard-as-nails-with-nylon-nail-treatment-formula-133ml~p28088295/?utm_source=openai))</t>
+          <t>0074170450835</t>
         </is>
       </c>
     </row>
@@ -44763,7 +44763,7 @@
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Sistema Hydrate Twist 'n' Chug Water Drink Bottle 900mL is 9414202137388. ([argos.co.uk](https://www.argos.co.uk/product/4665960?utm_source=openai))</t>
+          <t>9414202137388</t>
         </is>
       </c>
     </row>
@@ -45060,7 +45060,7 @@
       </c>
       <c r="E1657" t="inlineStr">
         <is>
-          <t>93406697</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -45214,7 +45214,7 @@
       </c>
       <c r="E1663" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Cadbury Chomp Milk Chocolate Bar 30g is 9300617323419. ([campbells.com.au](https://www.campbells.com.au/convenience/confectionery-%26-snacks/chocolate/chomp-wafer-biscuit-chocolate/0000431170_890?utm_source=openai))</t>
+          <t>9300617323419</t>
         </is>
       </c>
     </row>
@@ -45372,7 +45372,7 @@
       </c>
       <c r="E1669" t="inlineStr">
         <is>
-          <t>The Australian barcode for the 'Colgate Sensitive Expert Toothbrush Ultra Soft 2 pack' is 8850006951057. ([mydeal.com.au](https://www.mydeal.com.au/colgate-toothbrush-sensitive-expert-super-soft-2-pack-13816190?utm_source=openai))</t>
+          <t>8850006951057</t>
         </is>
       </c>
     </row>
@@ -45453,7 +45453,7 @@
       </c>
       <c r="E1672" t="inlineStr">
         <is>
-          <t>The barcode for 'Fudge Professional Clean Blonde Damage Rewind Toning Purple Shampoo 250ml' is 5060420335545. ([cfdirect.com.au](https://cfdirect.com.au/products/fudge-professional-clean-blonde-damage-rewind-violet-toning-shampoo-250ml?utm_source=openai))</t>
+          <t>5060420335545</t>
         </is>
       </c>
     </row>
@@ -45507,7 +45507,7 @@
       </c>
       <c r="E1674" t="inlineStr">
         <is>
-          <t>The barcode for Head &amp; Shoulders Ultramen Sports Fresh 2 In 1 Dandruff Shampoo &amp; Conditioner 550ml in Australia is 4902430859608. ([ebay.com.au](https://www.ebay.com.au/itm/385116052050?srsltid=AfmBOopooNzmGjPOUZwzlqFz83UKk4fzH-3bLJqmBEzPG6aYtBjPPdeS&amp;utm_source=openai))</t>
+          <t>4902430859608</t>
         </is>
       </c>
     </row>
@@ -45615,7 +45615,7 @@
       </c>
       <c r="E1678" t="inlineStr">
         <is>
-          <t>The Australian barcode for Maybelline The Falsies Volum' Express Mascara in Blackest Black is 3600531507268. ([mydeal.com.au](https://www.mydeal.com.au/maybelline-the-falsies-volum-express-mascara-blackest-black-13503697?utm_source=openai))</t>
+          <t>3600531507268</t>
         </is>
       </c>
     </row>
@@ -46232,7 +46232,7 @@
       </c>
       <c r="E1701" t="inlineStr">
         <is>
-          <t>79400204387</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -46502,7 +46502,7 @@
       </c>
       <c r="E1711" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Boys' Underwear Trunks Size 12-14 or 14-16 Assorted 3 Pack is 7445005130148. ([ebay.com.au](https://www.ebay.com.au/p/7064793682?utm_source=openai))</t>
+          <t>7445005130148</t>
         </is>
       </c>
     </row>
@@ -46768,7 +46768,7 @@
       </c>
       <c r="E1721" t="inlineStr">
         <is>
-          <t>The barcode for Dove Restoring Ritual Conditioner 850mL in Australia is 8851932479486. ([thewarehouse.co.nz](https://www.thewarehouse.co.nz/p/dove-conditioner-restoring-ritual-850ml/R2996102.html?utm_source=openai))</t>
+          <t>8851932479486</t>
         </is>
       </c>
     </row>
@@ -46795,7 +46795,7 @@
       </c>
       <c r="E1722" t="inlineStr">
         <is>
-          <t>The barcode for 'Head &amp; Shoulders 2 In 1 Itchy Scalp Care Shampoo &amp; Conditioner 750mL' in Australia is 4902430285988. ([superbuys.com.au](https://www.superbuys.com.au/head-shoulders-itchy-scalp-care-eucalyptus-anti-da?utm_source=openai))</t>
+          <t>4902430285988</t>
         </is>
       </c>
     </row>
@@ -46822,7 +46822,7 @@
       </c>
       <c r="E1723" t="inlineStr">
         <is>
-          <t>The barcode for Head &amp; Shoulders Apple Fresh Anti Dandruff Shampoo 660ml in Australia is 4987176038593. ([thewarehouse.co.nz](https://www.thewarehouse.co.nz/p/head-shoulders-apple-fresh-shampoo-660ml/R2764207.html?utm_source=openai))</t>
+          <t>4987176038593</t>
         </is>
       </c>
     </row>
@@ -46849,7 +46849,7 @@
       </c>
       <c r="E1724" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Head &amp; Shoulders Dry Scalp Care Anti Dandruff Shampoo For Dry Scalp 660ml' is 4987176038654. ([mydeal.com.au](https://www.mydeal.com.au/head-shoulders-dry-scalp-care-coconut-oil-anti-dandruff-shampoo-660ml-8668987?utm_source=openai))</t>
+          <t>4987176038654</t>
         </is>
       </c>
     </row>
@@ -47389,7 +47389,7 @@
       </c>
       <c r="E1744" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Oral-B 3D White Toothpaste Intensive Whitening Freshness Blast 94g' is 0671717091072. ([ebay.com.au](https://www.ebay.com.au/p/11080328241?utm_source=openai))</t>
+          <t>0671717091072</t>
         </is>
       </c>
     </row>
@@ -47605,7 +47605,7 @@
       </c>
       <c r="E1752" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Revlon Colorstay Eye Liner Black 0.28g' is 0309976790015. ([goodpricepharmacy.com.au](https://www.goodpricepharmacy.com.au/revlon-colorstay-eyeliner-black-0-28g-0309976790015?utm_source=openai))</t>
+          <t>0309976790015</t>
         </is>
       </c>
     </row>
@@ -47956,7 +47956,7 @@
       </c>
       <c r="E1765" t="inlineStr">
         <is>
-          <t>The Australian barcode for Vaseline Lip Care Mellow Rose 3g is 8886467037382. ([ahpcpharmacyoutlet.com.au](https://www.ahpcpharmacyoutlet.com.au/products/vaseline-colour-care-mellow-rose-3g?utm_source=openai))</t>
+          <t>8886467037382</t>
         </is>
       </c>
     </row>
@@ -48172,7 +48172,7 @@
       </c>
       <c r="E1773" t="inlineStr">
         <is>
-          <t>93101150919562</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -48241,7 +48241,7 @@
       <c r="D1776" t="inlineStr"/>
       <c r="E1776" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds No Show Footlets Nude (3-8 &amp; 8-11) is 9326489015375. ([ozdingo.com.au](https://ozdingo.com.au/products/3-x-bonds-no-show-footlets-nude-stockings-socks?utm_source=openai))</t>
+          <t>9326489015375</t>
         </is>
       </c>
     </row>
@@ -48349,7 +48349,7 @@
       </c>
       <c r="E1780" t="inlineStr">
         <is>
-          <t>The Australian barcode for Compostic Compostable Snack Bags 20 Pack is 9421905614061.</t>
+          <t>9421905614061</t>
         </is>
       </c>
     </row>
@@ -48511,7 +48511,7 @@
       </c>
       <c r="E1786" t="inlineStr">
         <is>
-          <t>The barcode for Dove Nourishing Moisture Shampoo 850ml in Australia is 8851932348348. ([bigw.com.au](https://www.bigw.com.au/product/dove-nourishing-moisture-shampoo-850ml/p/6004016?utm_source=openai))</t>
+          <t>8851932348348</t>
         </is>
       </c>
     </row>
@@ -48592,7 +48592,7 @@
       </c>
       <c r="E1789" t="inlineStr">
         <is>
-          <t>The barcode for Head &amp; Shoulders Cool Menthol 2 In 1 Anti Dandruff Shampoo &amp; Conditioner 750mL in Australia is 4987176038517. ([mydeal.com.au](https://www.mydeal.com.au/head-shoulders-cool-menthol-2in1-shampoo-and-conditioner-350ml-8668981?utm_source=openai))</t>
+          <t>4987176038517</t>
         </is>
       </c>
     </row>
@@ -48646,7 +48646,7 @@
       </c>
       <c r="E1791" t="inlineStr">
         <is>
-          <t>The barcode for Head &amp; Shoulders Dry Scalp Care Conditioner 660ml in Australia is 4987176161215. ([mattblatt.com.au](https://www.mattblatt.com.au/mb/buy/deal-first-head-shoulders-dry-scalp-care-conditioner-660ml-8614534021332/?utm_source=openai))</t>
+          <t>4987176161215</t>
         </is>
       </c>
     </row>
@@ -49213,7 +49213,7 @@
       </c>
       <c r="E1812" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Oral-B Pro Health Toothpaste Deep Clean 200g' is 671717091133. ([mydeal.com.au](https://www.mydeal.com.au/oral-b-pro-health-toothpaste-deep-clean-200g-14247000?utm_source=openai))</t>
+          <t>671717091133</t>
         </is>
       </c>
     </row>
@@ -49267,7 +49267,7 @@
       </c>
       <c r="E1814" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Sally Hansen Vitamin E Cuticle Oil 13.3ml' is 074170451245. ([thepharmacynetwork.com.au](https://www.thepharmacynetwork.com.au/sally-hansen-vitamin-e-nail-cuticle-oil-13-3ml?utm_source=openai))</t>
+          <t>074170451245</t>
         </is>
       </c>
     </row>
@@ -49668,7 +49668,7 @@
       </c>
       <c r="E1829" t="inlineStr">
         <is>
-          <t>The barcode for 'Toni &amp; Guy Shampoo For Fine Hair 250ml' in Australia is 079400204356. ([bigw.com.au](https://www.bigw.com.au/product/toni-guy-volume-addiction-shampoo-for-fine-hair-250ml/p/9901066433?utm_source=openai))</t>
+          <t>079400204356</t>
         </is>
       </c>
     </row>
@@ -49776,7 +49776,7 @@
       </c>
       <c r="E1833" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Boys Underwear Trunks Size 6/8 Assorted 3 Pack is 9352762757823. ([ebay.com.au](https://www.ebay.com.au/itm/116610194382?utm_source=openai)) However, specific barcodes for sizes 8-10 or 10-12 in the assorted 3 pack are not readily available.</t>
+          <t>9352762757823</t>
         </is>
       </c>
     </row>
@@ -49907,7 +49907,7 @@
       <c r="D1838" t="inlineStr"/>
       <c r="E1838" t="inlineStr">
         <is>
-          <t>The barcode for 'Bonds Comfy Tops Slimming Sheer Tights' in size Medium is 9326489965205. ([ebay.com.au](https://www.ebay.com.au/p/1877985724?srsltid=AfmBOoo_nyecniDB4aQ8xokpwBy10mRn4Q76_WfaWxNd2xpTNSzHbDQk&amp;utm_source=openai)) However, I couldn't find the exact barcode for 'Bonds Comfy Tops Semi Opaque Tights Black Med-Lge Each'.</t>
+          <t>9326489965205</t>
         </is>
       </c>
     </row>
@@ -49976,7 +49976,7 @@
       <c r="D1841" t="inlineStr"/>
       <c r="E1841" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Men's Action Bikini 4 Pack Underwear in size Large is 9310259881451. ([ebay.com](https://www.ebay.com/p/1840725143?utm_source=openai))</t>
+          <t>9310259881451</t>
         </is>
       </c>
     </row>
@@ -50026,7 +50026,7 @@
       </c>
       <c r="E1843" t="inlineStr">
         <is>
-          <t>The Australian barcode for the 'Colgate Toothbrush 360 Advanced Optic White Soft 4 Pack' is 8850006943885. ([kgelectronic.com.au](https://www.kgelectronic.com.au/p/6PK-4pc-Colgate-Toothbrush-360-Advanced-Optic-Whit/61020715_6PK?utm_source=openai))</t>
+          <t>8850006943885</t>
         </is>
       </c>
     </row>
@@ -50377,7 +50377,7 @@
       </c>
       <c r="E1856" t="inlineStr">
         <is>
-          <t>The barcode for 'Maui Moisture Heal &amp; Hydrate Shea Butter Conditioner For Damaged Hair 385ml' in Australia is 0022796180124. ([pharmacy4less.com.au](https://pharmacy4less.com.au/maui-moisture-heal-hydrate-shea-butter-conditioner-385ml/?utm_source=openai))</t>
+          <t>0022796180124</t>
         </is>
       </c>
     </row>
@@ -50566,7 +50566,7 @@
       </c>
       <c r="E1863" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'OGX Cherry Blossom Shampoo For Thin &amp; Fine Hair 385mL' is 022796900807. ([chemistwarehouse.com.au](https://www.chemistwarehouse.com.au/buy/75556/ogx-heavenly-hydration-shine-cherry-blossom-shampoo-for-thin-and-fine-hair-385ml?utm_source=openai))</t>
+          <t>022796900807</t>
         </is>
       </c>
     </row>
@@ -50805,7 +50805,7 @@
       </c>
       <c r="E1872" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Sally Hansen Nail Polish Double Duty Base Coat 13.3mL' is 0074170451092. ([mydeal.com.au](https://www.mydeal.com.au/sally-hansen-double-duty-strengthening-base-top-coat-8885823?utm_source=openai))</t>
+          <t>0074170451092</t>
         </is>
       </c>
     </row>
@@ -51345,7 +51345,7 @@
       </c>
       <c r="E1892" t="inlineStr">
         <is>
-          <t>70330743274</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -51445,7 +51445,7 @@
       <c r="D1896" t="inlineStr"/>
       <c r="E1896" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Comfy Tops Slimming Sheer Tights in Black, size XL, is 9356044064128. ([kiwibargain.co.nz](https://kiwibargain.co.nz/products/comfy-tops-slimming-sheer-tights?srsltid=AfmBOopEp95HXrxsZyAxOvL0Nho6k8yKn_3UsAc-vJ0Elab9-nfOtvy3&amp;utm_source=openai))</t>
+          <t>9356044064128</t>
         </is>
       </c>
     </row>
@@ -51468,7 +51468,7 @@
       <c r="D1897" t="inlineStr"/>
       <c r="E1897" t="inlineStr">
         <is>
-          <t>The barcode for 'Bonds Comfy Tops Very Opaque Tights Black Med-Lge Each' is 0705353344909. ([ebay.com.au](https://www.ebay.com.au/p/13074086107?utm_source=openai))</t>
+          <t>0705353344909</t>
         </is>
       </c>
     </row>
@@ -51576,7 +51576,7 @@
       </c>
       <c r="E1901" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Men's Underwear Hipster Brief Large Assorted 5 Pack is 9352762354404. ([ozdingo.com.au](https://ozdingo.com.au/products/bonds-mens-5-pairs-hipster-cotton-underwear-mens-briefs-pairs-black-s-m-l-xl-xxl?utm_source=openai))</t>
+          <t>9352762354404</t>
         </is>
       </c>
     </row>
@@ -51603,7 +51603,7 @@
       </c>
       <c r="E1902" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Men's Size 6-10 Soft Bamboo Blend Crew Sock 5-Pack in Black/Multi is 9311497880343. ([ebay.co.uk](https://www.ebay.co.uk/p/16005799160?utm_source=openai)) However, I couldn't find the specific barcode for the 'Bonds Socks Mens Black Size 11-14 Assorted 3 Pack'.</t>
+          <t>9311497880343</t>
         </is>
       </c>
     </row>
@@ -51707,7 +51707,7 @@
       </c>
       <c r="E1906" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Clairol Nice &amp; Easy Permanent 8A Medium Ash Blonde Hair Colour' is 3614228300766. ([kgelectronic.com.au](https://www.kgelectronic.com.au/p/Health-Beauty/Hair-Care-Styling/Hair-Colouring/6PK-Clairol-Nice-N-Easy-Permanent-Hair-Colour-8A-M/160595_6PK?utm_source=openai))</t>
+          <t>3614228300766</t>
         </is>
       </c>
     </row>
@@ -51950,7 +51950,7 @@
       </c>
       <c r="E1915" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Gillette Pure Shaving Gel For Men 170g' is 047400666269. ([discountchemist.com.au](https://discountchemist.com.au/gillette-pure-shave-gel-170g/?utm_source=openai))</t>
+          <t>047400666269</t>
         </is>
       </c>
     </row>
@@ -52031,12 +52031,7 @@
       </c>
       <c r="E1918" t="inlineStr">
         <is>
-          <t>The Australian barcode for L'Oréal Paris Magic Retouch Temporary Root Concealer Spray varies depending on the shade. Here are some examples:
-- **Light Brown**: 3600523192816
-- **Black**: 3600523192786
-- **Beige**: 3600523192816
-- **Cool Brown**: 3600523337644
-Please note that the barcode may differ based on the specific shade and packaging.</t>
+          <t>3600523192816</t>
         </is>
       </c>
     </row>
@@ -52252,7 +52247,7 @@
       </c>
       <c r="E1926" t="inlineStr">
         <is>
-          <t>The Australian barcode for Maybelline Instant Age Rewind Concealer in shade Fair 110 (6ml) is 9417901462669. ([mydeal.com.au](https://www.mydeal.com.au/maybelline-marvel-multi-use-concealer-6ml-110-fair-10467299?utm_source=openai))</t>
+          <t>9417901462669</t>
         </is>
       </c>
     </row>
@@ -52495,7 +52490,7 @@
       </c>
       <c r="E1935" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'OGX Cherry Blossom Conditioner For Thin &amp; Fine Hair 385mL' is 22796900814. ([catandclaudias.com.au](https://catandclaudias.com.au/ogx-heavenly-hydration-cherry-blossom-conditioner-385ml-22796900814?utm_source=openai))</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -52549,7 +52544,7 @@
       </c>
       <c r="E1937" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Oral-B Overnight Protect Toothpaste Soft Mint 95g' is 4987176273673. ([davidjonespharmacy.com.au](https://www.davidjonespharmacy.com.au/oral-b-overnight-protect-soft-mint-95g-toothpaste?utm_source=openai))</t>
+          <t>4987176273673</t>
         </is>
       </c>
     </row>
@@ -52576,7 +52571,7 @@
       </c>
       <c r="E1938" t="inlineStr">
         <is>
-          <t>The Australian barcode for the 'Oral-B Pro 100 Deep Clean Electric Toothbrush Starter Kit each' is 6903148269749. ([ebay.com.au](https://www.ebay.com.au/itm/176869770817?srsltid=AfmBOorfb17SUqLeBJVqoFd4QtnKmOgL4KPz8iCVOs2ieKiSzGXJoPCc&amp;utm_source=openai))</t>
+          <t>6903148269749</t>
         </is>
       </c>
     </row>
@@ -52603,7 +52598,7 @@
       </c>
       <c r="E1939" t="inlineStr">
         <is>
-          <t>The Australian barcode (GTIN) for the Oral-B Pro 300 Kids Sensitive Clean Electric Toothbrush is 671717097944. ([mydeal.com.au](https://www.mydeal.com.au/oral-b-pro-300-kids-sensitive-clean-electric-toothbrush-each-14247041?utm_source=openai))</t>
+          <t>671717097944</t>
         </is>
       </c>
     </row>
@@ -52630,7 +52625,7 @@
       </c>
       <c r="E1940" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Pine O Cleen Disinfectant Wipes 150 Pack' is 9300701457983. ([mydeal.com.au](https://www.mydeal.com.au/pine-o-cleen-lemon-lime-disinfectant-biodegradable-cleaning-wipes-pack-of-150-s-14635158?utm_source=openai))</t>
+          <t>9300701457983</t>
         </is>
       </c>
     </row>
@@ -52707,7 +52702,7 @@
       </c>
       <c r="E1943" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Revlon ColorStay Longwear Makeup Normal/Dry - Natural Beige 30ml' is 309974677073.</t>
+          <t>309974677073</t>
         </is>
       </c>
     </row>
@@ -52761,7 +52756,7 @@
       </c>
       <c r="E1945" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Sally Hansen Nail Polish Maximum Growth 13ml' is 074170451078. ([thepharmacynetwork.com.au](https://www.thepharmacynetwork.com.au/sally-hansen-maximum-growth-13-3ml?utm_source=openai))</t>
+          <t>074170451078</t>
         </is>
       </c>
     </row>
@@ -53247,7 +53242,7 @@
       </c>
       <c r="E1963" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Cadbury Chomp Milk Chocolate Bar 30g is 9300617323419. ([campbells.com.au](https://www.campbells.com.au/convenience/confectionery-%26-snacks/chocolate/chomp-wafer-biscuit-chocolate/0000431170_890?utm_source=openai))</t>
+          <t>9300617323419</t>
         </is>
       </c>
     </row>
@@ -53409,7 +53404,7 @@
       </c>
       <c r="E1969" t="inlineStr">
         <is>
-          <t>70612102584</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -53432,7 +53427,7 @@
       <c r="D1970" t="inlineStr"/>
       <c r="E1970" t="inlineStr">
         <is>
-          <t>The Australian barcode for the BIC EasyRinse Refillable Razor &amp; 3 Blade Cartridges Pack is 070330749078. ([amazon.com](https://www.amazon.com/BIC-EasyRinse-Anti-Clogging-Refillable-Cartridges/dp/B0CNKSB17K?utm_source=openai))</t>
+          <t>070330749078</t>
         </is>
       </c>
     </row>
@@ -53586,7 +53581,7 @@
       </c>
       <c r="E1976" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Explorer Original Crew Wool Blend Socks in Black, Size 6-10, is 9310115091970. ([ozdingo.com.au](https://ozdingo.com.au/products/2-x-mens-bonds-explorer-original-crew-wool-blend-black-socks?utm_source=openai))</t>
+          <t>9310115091970</t>
         </is>
       </c>
     </row>
@@ -53682,7 +53677,7 @@
       <c r="D1980" t="inlineStr"/>
       <c r="E1980" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Women's Hipster Bikini 2 Pack in size 8 is 9351257408868. ([ebay.com](https://www.ebay.com/p/18016925955?utm_source=openai))</t>
+          <t>9351257408868</t>
         </is>
       </c>
     </row>
@@ -53755,7 +53750,7 @@
       </c>
       <c r="E1983" t="inlineStr">
         <is>
-          <t>The Australian barcode for the 'Bonds Men's Underwear Hipster Brief Medium Assorted 5 Pack' is 9311497578318. ([ebay.com.au](https://www.ebay.com.au/p/26036578801?utm_source=openai))</t>
+          <t>9311497578318</t>
         </is>
       </c>
     </row>
@@ -53855,7 +53850,7 @@
       <c r="D1987" t="inlineStr"/>
       <c r="E1987" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Women's Comfy Crop in size XL is 9351257832434.</t>
+          <t>9351257832434</t>
         </is>
       </c>
     </row>
@@ -53878,7 +53873,7 @@
       <c r="D1988" t="inlineStr"/>
       <c r="E1988" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Women's Cottontails Full Brief Underwear in Size 18, White, is 9334693350731. ([kogan.com](https://www.kogan.com/au/buy/aie-bonds-womens-cottontails-full-brief-underwear-white-eg4055-3/?utm_source=openai)) However, the barcode for the Assorted 2 Pack in Size 18 is not available in the provided sources.</t>
+          <t>9334693350731</t>
         </is>
       </c>
     </row>
@@ -53905,7 +53900,7 @@
       </c>
       <c r="E1989" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Ribbed Zip Wondersuit in Pink Striped, Size 2, is 9359481013476. ([brosa.com.au](https://www.brosa.com.au/br/buy/mighty-ape-bonds-ribbed-zip-wondersuit-pink-striped-size-2-37977233/?utm_source=openai))</t>
+          <t>9359481013476</t>
         </is>
       </c>
     </row>
@@ -54067,7 +54062,7 @@
       </c>
       <c r="E1995" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Colgate Battery Powered Toothbrush Whitening Optic White is 9300632076215. ([vitalpharmacysupplies.com.au](https://vitalpharmacysupplies.com.au/products/colgate-360-optic-white-sonic-powered-toothbrush-1-pack?utm_source=openai))</t>
+          <t>9300632076215</t>
         </is>
       </c>
     </row>
@@ -54630,7 +54625,7 @@
       </c>
       <c r="E2016" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'L'Oreal Paris Magic Retouch Hair Colour 5 Blonde Each' is 3600524051617. ([mydeal.com.au](https://www.mydeal.com.au/l-oreal-paris-magic-retouch-permanent-5-brown-12456158?utm_source=openai))</t>
+          <t>3600524051617</t>
         </is>
       </c>
     </row>
@@ -55031,7 +55026,7 @@
       </c>
       <c r="E2031" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Oral-B Pro 800 Electric Toothbrush Cross Action Set is 4902430484855. ([boutiqueretailer.com.au](https://www.boutiqueretailer.com.au/products/pro-800-electric-toothbrush-with-travel-case-black?utm_source=openai))</t>
+          <t>4902430484855</t>
         </is>
       </c>
     </row>
@@ -55112,7 +55107,7 @@
       </c>
       <c r="E2034" t="inlineStr">
         <is>
-          <t>The Australian barcode for Revlon ColorStay Eye Liner Black Brown 0.28g is 0309976790022. ([kogan.com](https://www.kogan.com/au/buy/revlon-colorstay-eyeliner-202-blackbrown-00309976790022/?utm_source=openai))</t>
+          <t>0309976790022</t>
         </is>
       </c>
     </row>
@@ -55220,7 +55215,7 @@
       </c>
       <c r="E2038" t="inlineStr">
         <is>
-          <t>The Australian barcode for Revlon Super Lustrous Lipstick in Softsilver Rose (shade 430) is 0080100005341. ([mydeal.com.au](https://www.mydeal.com.au/revlon-super-lustrous-lipstick-430-softsilver-rose-12555193?utm_source=openai))</t>
+          <t>0080100005341</t>
         </is>
       </c>
     </row>
@@ -55517,7 +55512,7 @@
       </c>
       <c r="E2049" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Cadbury Chomp Milk Chocolate Bar 30g is 9300617323419. ([campbells.com.au](https://www.campbells.com.au/convenience/confectionery-%26-snacks/chocolate/chomp-wafer-biscuit-chocolate/0000431170_890?utm_source=openai))</t>
+          <t>9300617323419</t>
         </is>
       </c>
     </row>
@@ -55814,7 +55809,7 @@
       </c>
       <c r="E2060" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Swisse Ultivite Men's Multivitamin Tablets 100 pack' is 9311770595919. ([buycott.com](https://www.buycott.com/upc/9311770595919?utm_source=openai))</t>
+          <t>9311770595919</t>
         </is>
       </c>
     </row>
@@ -56415,7 +56410,7 @@
       </c>
       <c r="E2083" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Cadbury Favourites Boxed Chocolate 820g' is 9300617051503. ([kgelectronic.com.au](https://www.kgelectronic.com.au/p/Food-Drinks/Pantry/Sweets-Chocolate/Chocolate-Sweets-Assortments/Cadbury-820g-Favourites-Assorted-Chocolates/4224661?utm_source=openai))</t>
+          <t>9300617051503</t>
         </is>
       </c>
     </row>
@@ -56546,7 +56541,7 @@
       </c>
       <c r="E2088" t="inlineStr">
         <is>
-          <t>The barcode for 'Bonds Men's Underwear Guy Front Trunk Size Large Assorted Each' is 9342830293568. ([ebay.co.uk](https://www.ebay.co.uk/itm/205223527567?utm_source=openai))</t>
+          <t>9342830293568</t>
         </is>
       </c>
     </row>
@@ -56596,7 +56591,7 @@
       </c>
       <c r="E2090" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Men's Underwear Hipster Brief 5 Pack in XX Large size is 9352762354428. ([fruugo.ie](https://www.fruugo.ie/bonds-5-pack-mens-assorted-black-cotton-hipster-briefs-comfy-undies-underwear-m8dm5t-39k/p-137684146-290624680?utm_source=openai))</t>
+          <t>9352762354428</t>
         </is>
       </c>
     </row>
@@ -56642,7 +56637,7 @@
       <c r="D2092" t="inlineStr"/>
       <c r="E2092" t="inlineStr">
         <is>
-          <t>The Australian barcode for the 'Bonds Singlet Mens Chesty White Size 20 Each' is 9312758468706. ([ebay.com](https://www.ebay.com/p/1140749087?utm_source=openai))</t>
+          <t>9312758468706</t>
         </is>
       </c>
     </row>
@@ -56900,7 +56895,7 @@
       <c r="D2102" t="inlineStr"/>
       <c r="E2102" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Women's Underwear Cottontails Full Brief 2 Pack in size 16 is 9334693350724. ([ebay.co.uk](https://www.ebay.co.uk/p/11008711220?utm_source=openai)) However, the specific barcode for size 20 is not available in the provided sources.</t>
+          <t>9334693350724</t>
         </is>
       </c>
     </row>
@@ -56927,7 +56922,7 @@
       </c>
       <c r="E2103" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Zippy Wondersuit Dumbo Navy Size 3 is 9313366640393. ([ebay.com.au](https://www.ebay.com.au/p/1462389101?utm_source=openai))</t>
+          <t>9313366640393</t>
         </is>
       </c>
     </row>
@@ -57089,7 +57084,7 @@
       </c>
       <c r="E2109" t="inlineStr">
         <is>
-          <t>The Australian barcode for the 'Colgate Battery Powered Toothbrush Total Soft each' is 8850006954584. ([goodpricepharmacy.com.au](https://www.goodpricepharmacy.com.au/colgate-power-toothbrush-total-1pk-8850006954584?utm_source=openai))</t>
+          <t>8850006954584</t>
         </is>
       </c>
     </row>
@@ -57143,7 +57138,7 @@
       </c>
       <c r="E2111" t="inlineStr">
         <is>
-          <t>The barcode for the Colgate Toothbrush Total Foaming Clean Medium in Australia is 8850006954805. ([davidjonespharmacy.com.au](https://www.davidjonespharmacy.com.au/colgate-toothbrush-total-foaming-clean-soft-1-pack?utm_source=openai))</t>
+          <t>8850006954805</t>
         </is>
       </c>
     </row>
@@ -57436,7 +57431,7 @@
       </c>
       <c r="E2122" t="inlineStr">
         <is>
-          <t>The Australian barcode (GTIN) for Maybelline Fit Me Dewy &amp; Smooth Liquid Foundation in shade 225 Medium Buff, 30ml, is 9344329007793. ([mydeal.com.au](https://www.mydeal.com.au/maybelline-fit-me-dewy-smooth-luminous-liquid-foundation-medium-buff-225-10552293?utm_source=openai))</t>
+          <t>9344329007793</t>
         </is>
       </c>
     </row>
@@ -57625,7 +57620,7 @@
       </c>
       <c r="E2129" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Cadbury Favourites Boxed Chocolate 820g' is 9300617304265. ([mydeal.com.au](https://www.mydeal.com.au/cadbury-favourites-820g-9867152?utm_source=openai))</t>
+          <t>9300617304265</t>
         </is>
       </c>
     </row>
@@ -58030,7 +58025,7 @@
       </c>
       <c r="E2144" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'OGX Brazilian Keratin Therapy Shampoo For Dull Hair 385mL' is 0022796916013. ([dicksmith.com.au](https://www.dicksmith.com.au/da/buy/ogx-brazilian-keratin-therapy-shampoo-385ml-00022796916013/?utm_source=openai))</t>
+          <t>0022796916013</t>
         </is>
       </c>
     </row>
@@ -58084,7 +58079,7 @@
       </c>
       <c r="E2146" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Oral-B Overnight Protect Toothpaste Intense Mint 95g' is 671717091058. ([mydeal.com.au](https://www.mydeal.com.au/oral-b-overnight-protect-toothpaste-intense-mint-95g-14244833?utm_source=openai))</t>
+          <t>671717091058</t>
         </is>
       </c>
     </row>
@@ -58111,7 +58106,7 @@
       </c>
       <c r="E2147" t="inlineStr">
         <is>
-          <t>The Australian barcode for the 'Oral-B Pro 100 Floss Action Clean Blue Electric Toothbrush each' is 6903148269923. ([kgelectronic.com.au](https://www.kgelectronic.com.au/p/Health-Beauty/Dental-Oral-Care/Electric-Toothbrushes/Oral-B-Electric-Rechargeable-Power-Toothbrush-Pro/55503?utm_source=openai))</t>
+          <t>6903148269923</t>
         </is>
       </c>
     </row>
@@ -58161,7 +58156,7 @@
       <c r="D2149" t="inlineStr"/>
       <c r="E2149" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Razzamatazz Knee Hi Pantyhose Tan One Size 2 Pack' is 9356044065590. ([fruugonorge.com](https://www.fruugonorge.com/2-par-razzamatazz-sheer-knee-hi-high-kvinner-strompebukser-sokker-h80043-15-denier/p-141239140-298622391?utm_source=openai))</t>
+          <t>9356044065590</t>
         </is>
       </c>
     </row>
@@ -58215,7 +58210,7 @@
       </c>
       <c r="E2151" t="inlineStr">
         <is>
-          <t>The Australian barcode for Revlon Super Lustrous Lipstick in shade 420 Blushed is 309976954035. ([ebay.com.au](https://www.ebay.com.au/itm/335891398807?utm_source=openai))</t>
+          <t>309976954035</t>
         </is>
       </c>
     </row>
@@ -58242,7 +58237,7 @@
       </c>
       <c r="E2152" t="inlineStr">
         <is>
-          <t>The Australian barcode for Revlon Super Lustrous Lipstick in the shade "Wine With Everything" is 080100004436. ([mydeal.com.au](https://www.mydeal.com.au/revlon-super-lustrous-creme-lipstick-525-wine-with-everything-13949272?utm_source=openai))</t>
+          <t>080100004436</t>
         </is>
       </c>
     </row>
@@ -58323,7 +58318,7 @@
       </c>
       <c r="E2155" t="inlineStr">
         <is>
-          <t>The Australian barcode (GTIN) for the Sally Hansen Salon Effects Perfect Manicure Press-On Nails Kit - Square - A La Mode is 3616305234285. ([mydeal.com.au](https://www.mydeal.com.au/sally-hansen-salon-effects-perfect-manicure-square-a-la-mode-13100722?utm_source=openai))</t>
+          <t>3616305234285</t>
         </is>
       </c>
     </row>
@@ -58346,7 +58341,7 @@
       <c r="D2156" t="inlineStr"/>
       <c r="E2156" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Schick Hydro Silk Deluxe Care Razor With 2 Cartridge Set is 4891228312503. ([mattblatt.com.au](https://www.mattblatt.com.au/mb/buy/deal-first-schick-hydro-silk-deluxe-care-razor-with-2-cartridge-set-each-8662173155540/?utm_source=openai))</t>
+          <t>4891228312503</t>
         </is>
       </c>
     </row>
@@ -58508,7 +58503,7 @@
       </c>
       <c r="E2162" t="inlineStr">
         <is>
-          <t>93555166</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -58616,7 +58611,7 @@
       </c>
       <c r="E2166" t="inlineStr">
         <is>
-          <t>The barcode for 'Swisse Ultivite Women's Multivitamin Tablets 100 pack' is 9311770608787. ([davidjonespharmacy.com.au](https://www.davidjonespharmacy.com.au/swisse-womens-ultivite-multivitamin-120-tablets~79722?utm_source=openai))</t>
+          <t>9311770608787</t>
         </is>
       </c>
     </row>
@@ -58913,7 +58908,7 @@
       </c>
       <c r="E2177" t="inlineStr">
         <is>
-          <t>79400204530</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -59206,7 +59201,7 @@
       <c r="D2188" t="inlineStr"/>
       <c r="E2188" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Action Brief Extra Large Assorted 4 Pack is 9337367087865. ([mightyape.com.au](https://www.mightyape.com.au/ma/buy/aie-mens-bonds-action-hipster-brief-jocks-4-pairs-underwear-assorted-colours-undies-eg4018-1/?utm_source=openai))</t>
+          <t>9337367087865</t>
         </is>
       </c>
     </row>
@@ -59233,7 +59228,7 @@
       </c>
       <c r="E2189" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Bonds Boys Briefs 4 Pack in size 6-8 is 1569888. ([bigw.com.au](https://www.bigw.com.au/product/bonds-boys-briefs-4-pack-blue-size-6-8/p/1569888?utm_source=openai)) For the size 4-6 pack, the barcode is 1177206. ([bigw.com.au](https://www.bigw.com.au/product/bonds-boys-everyday-briefs-7-pack-multi-size-4-6/p/1177206?utm_source=openai))</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -59406,7 +59401,7 @@
       <c r="D2196" t="inlineStr"/>
       <c r="E2196" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Kids Chesty Bond Size 8-10 2 pack is 9312758468706. ([ebay.com](https://www.ebay.com/p/1140749087?utm_source=openai))</t>
+          <t>9312758468706</t>
         </is>
       </c>
     </row>
@@ -59429,7 +59424,7 @@
       <c r="D2197" t="inlineStr"/>
       <c r="E2197" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Ladies Hipster Bikini Size 10 Assorted 2 Pack is 9354009043881. ([ebay.com.au](https://www.ebay.com.au/p/9063560487?utm_source=openai))</t>
+          <t>9354009043881</t>
         </is>
       </c>
     </row>
@@ -59452,7 +59447,7 @@
       <c r="D2198" t="inlineStr"/>
       <c r="E2198" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Women's Hipster Gee 2-Pack is 9350461219345. ([ebay.com.au](https://www.ebay.com.au/p/699116589?utm_source=openai)) However, I couldn't find the specific barcode for the Bonds Ladies Hipster Boyleg Size 10 Assorted 2 Pack.</t>
+          <t>9350461219345</t>
         </is>
       </c>
     </row>
@@ -59498,7 +59493,7 @@
       <c r="D2200" t="inlineStr"/>
       <c r="E2200" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Men's Logo Cushioned Crew 3 Pack in size 6-10 is 9356044271182. ([ebay.com.au](https://www.ebay.com.au/itm/276262238211?srsltid=AfmBOorryG9WDmto05-xP9sQuv94UQpmXJLCoIv7HCg8YPyJsbjQ4Ko7&amp;utm_source=openai))</t>
+          <t>9356044271182</t>
         </is>
       </c>
     </row>
@@ -59709,7 +59704,7 @@
       <c r="D2209" t="inlineStr"/>
       <c r="E2209" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Women's Cottontails Full Brief 2 Pack in Skintone, Size 12, is 9326054480461. ([ebay.com.au](https://www.ebay.com.au/p/27040381268?utm_source=openai)) However, the barcode for the Size 14 Assorted 2 Pack is not available in the provided sources.</t>
+          <t>9326054480461</t>
         </is>
       </c>
     </row>
@@ -59732,7 +59727,7 @@
       <c r="D2210" t="inlineStr"/>
       <c r="E2210" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Women's Cottontails Full Brief 2 Pack in size 22 is 9312993998464. ([ebay.com.au](https://www.ebay.com.au/p/1362429594?srsltid=AfmBOops_qCAfZNDJXZoEd6tiQZY52iX_fcrhdT2Dmz4PhbObDjRcYJE&amp;utm_source=openai))</t>
+          <t>9312993998464</t>
         </is>
       </c>
     </row>
@@ -59759,7 +59754,7 @@
       </c>
       <c r="E2211" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Cadbury Favourites Boxed Chocolate 820g' is 9300617304265. ([mydeal.com.au](https://www.mydeal.com.au/cadbury-favourites-820g-9867152?utm_source=openai))</t>
+          <t>9300617304265</t>
         </is>
       </c>
     </row>
@@ -59867,13 +59862,7 @@
       </c>
       <c r="E2215" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Zip Wondersuit in Size 00 varies depending on the specific design or color. Here are some examples:
-- Teal Strip/Marscapone: 9360456344686
-- Sandy Seashells Marscapone: 9360456344266
-- Blossomfield Pink: 9360456165809
-- Pink Striped: 9359481013445
-- Harajuku: 9359481970762
-Please note that the barcode may differ for each design or color variant.</t>
+          <t>9360456344686</t>
         </is>
       </c>
     </row>
@@ -59900,7 +59889,7 @@
       </c>
       <c r="E2216" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Zippy Wondersuit in the 'Terrace Garden' design, size 1, is 9357679352987. ([babiesrus.com.au](https://babiesrus.com.au/products/bonds-zippy-wondersuit-terrace-garden?utm_source=openai)) For the 'Classic Rib Swirl Grey Marle' design in size 1, the barcode is 9357679359443. ([babiesrus.com.au](https://babiesrus.com.au/products/bonds-classic-rib-zippy-wondersuit-swirl-grey-marle?utm_source=openai)) Additionally, the 'Wondercool Eyelet Sunburst' design in size 1 has the barcode 9360456344211. ([mightyape.com.au](https://www.mightyape.com.au/ma/buy/mighty-ape-bonds-wondercool-eyelet-zippy-wondersuit-sunburst-size-1-39005187/?utm_source=openai)) Please note that barcodes may vary depending on the specific design and retailer.</t>
+          <t>9357679352987</t>
         </is>
       </c>
     </row>
@@ -60008,7 +59997,7 @@
       </c>
       <c r="E2220" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Cadbury Chomp Milk Chocolate Bar 30g is 9300617323419. ([campbells.com.au](https://www.campbells.com.au/convenience/confectionery-%26-snacks/chocolate/chomp-wafer-biscuit-chocolate/0000431170_890?utm_source=openai))</t>
+          <t>9300617323419</t>
         </is>
       </c>
     </row>
@@ -60251,7 +60240,7 @@
       </c>
       <c r="E2229" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Colgate Electric Toothbrush Pulse Essential Deep Clean is 671717098040. ([mydeal.com.au](https://www.mydeal.com.au/colgate-electric-toothbrush-pulse-essential-deep-clean-each-14249351?utm_source=openai))</t>
+          <t>671717098040</t>
         </is>
       </c>
     </row>
@@ -60814,7 +60803,7 @@
       </c>
       <c r="E2250" t="inlineStr">
         <is>
-          <t>The Australian barcode for Maybelline Falsies Lash Lift Mascara Ultra Black 9.6ml is 3600531629106. ([mydeal.com.au](https://www.mydeal.com.au/maybelline-falsies-lash-lift-volumising-mascara-9-6ml-ultra-black-13361971?utm_source=openai))</t>
+          <t>3600531629106</t>
         </is>
       </c>
     </row>
@@ -61084,7 +61073,7 @@
       </c>
       <c r="E2260" t="inlineStr">
         <is>
-          <t>30158719</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -61408,7 +61397,7 @@
       </c>
       <c r="E2272" t="inlineStr">
         <is>
-          <t>The Australian barcode for Maybelline Superstay Vinyl Ink Lipstick in shade 35 Cheeky is 9344329249209. ([mydeal.com.au](https://www.mydeal.com.au/maybelline-superstay-vinyl-ink-lip-35-cheeky-13414250?utm_source=openai))</t>
+          <t>9344329249209</t>
         </is>
       </c>
     </row>
@@ -61462,7 +61451,7 @@
       </c>
       <c r="E2274" t="inlineStr">
         <is>
-          <t>The Australian barcode for Maybelline The Falsies Surreal Mascara Meta Black 10mL is 30149663. ([shure-cosmetics.co.uk](https://www.shure-cosmetics.co.uk/maybelline-the-falsies-surreal-mascara-02-meta-black-9663-m-106.html?utm_source=openai))</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -61813,7 +61802,7 @@
       </c>
       <c r="E2287" t="inlineStr">
         <is>
-          <t>The Australian barcode for the 'Oral-B iO2 Electric Toothbrush Set Night Black each' is 0671717097869. ([ebay.com.au](https://www.ebay.com.au/p/25080336188?utm_source=openai))</t>
+          <t>0671717097869</t>
         </is>
       </c>
     </row>
@@ -61917,7 +61906,7 @@
       </c>
       <c r="E2291" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Revlon All In Tubing Mascara Blackest Black 201 12.9mL' is 309970194079. ([super1foods.com](https://www.super1foods.com/product/revlon-mascara-blackest-black-201-id-00309970194079?utm_source=openai))</t>
+          <t>309970194079</t>
         </is>
       </c>
     </row>
@@ -61971,7 +61960,7 @@
       </c>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Revlon Colorstay 16hr Eyeshadow Addictive 4.8g' is 0309978535010. ([ebay.com.au](https://www.ebay.com.au/p/1630144613?utm_source=openai))</t>
+          <t>0309978535010</t>
         </is>
       </c>
     </row>
@@ -62079,7 +62068,7 @@
       </c>
       <c r="E2297" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Cadbury Favourites Boxed Chocolate 820g' is 9300617304265. ([mydeal.com.au](https://www.mydeal.com.au/cadbury-favourites-820g-9867152?utm_source=openai))</t>
+          <t>9300617304265</t>
         </is>
       </c>
     </row>
@@ -62160,7 +62149,7 @@
       </c>
       <c r="E2300" t="inlineStr">
         <is>
-          <t>The Australian barcode for Revlon ColorStay Makeup for Normal/Dry Skin in shade 200 Nude (30ml) is 9370700293028. ([kogan.com](https://www.kogan.com/au/buy/revlon-colorstay-makeup-normaldry-skin-foundation-200-nude-spf-20-09370700293028/?utm_source=openai))</t>
+          <t>9370700293028</t>
         </is>
       </c>
     </row>
@@ -62241,7 +62230,7 @@
       </c>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>The Australian barcode for Revlon ColorStay Xtensionnaire Mascara Black 7ml is 309970194079. ([mydeal.com.au](https://www.mydeal.com.au/revlon-colorstay-xtensionnaire-non-waterproof-mascara-blackest-black-11038577?utm_source=openai))</t>
+          <t>309970194079</t>
         </is>
       </c>
     </row>
@@ -62268,7 +62257,7 @@
       </c>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Revlon Face Defuzzers Assorted Each' is 0309970000479. ([dicksmith.com.au](https://www.dicksmith.com.au/da/buy/revlon-face-defuzzers-00309970000479/?utm_source=openai))</t>
+          <t>0309970000479</t>
         </is>
       </c>
     </row>
@@ -62295,7 +62284,7 @@
       </c>
       <c r="E2305" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Sally Hansen Miracle Gel Out Of This Pearl' is 3616301253082. ([mydeal.com.au](https://www.mydeal.com.au/sally-hansen-miracle-geltm-14-7ml-out-of-this-pearl-8888723?utm_source=openai))</t>
+          <t>3616301253082</t>
         </is>
       </c>
     </row>
@@ -62349,7 +62338,7 @@
       </c>
       <c r="E2307" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Vitasoy Oat Yoghurt Blueberry 140g' is 9341650002404.</t>
+          <t>9341650002404</t>
         </is>
       </c>
     </row>
@@ -62673,7 +62662,7 @@
       </c>
       <c r="E2319" t="inlineStr">
         <is>
-          <t>The barcode for Schwarzkopf Extra Care Aqua Revive Moisturising Conditioner 400mL in Australia is 9310714227305. ([chemistwarehouse.com.au](https://www.chemistwarehouse.com.au/buy/115629/schwarzkopf-extra-care-aqua-revive-moisturising-conditioner-400ml?utm_source=openai))</t>
+          <t>9310714227305</t>
         </is>
       </c>
     </row>
@@ -63182,7 +63171,7 @@
       </c>
       <c r="E2338" t="inlineStr">
         <is>
-          <t>The barcode for 'Toni &amp; Guy Colour Radiance Pro Sulfate-Free Shampoo 250mL' in Australia is 9300830045006. ([ebay.com.au](https://www.ebay.com.au/p/21019257215?utm_source=openai))</t>
+          <t>9300830045006</t>
         </is>
       </c>
     </row>
@@ -63822,7 +63811,7 @@
       <c r="D2362" t="inlineStr"/>
       <c r="E2362" t="inlineStr">
         <is>
-          <t>The barcode for the 'Bonds Action Brief Medium Assorted 4 Pack' is 9337367087865. ([mightyape.com.au](https://www.mightyape.com.au/ma/buy/aie-mens-bonds-action-hipster-brief-jocks-4-pairs-underwear-assorted-colours-undies-eg4018-1/?utm_source=openai))</t>
+          <t>9337367087865</t>
         </is>
       </c>
     </row>
@@ -64091,7 +64080,7 @@
       <c r="D2373" t="inlineStr"/>
       <c r="E2373" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Bonds Instatan Sheer Stockings Slim Tight Light Brown Small Each' is 9312997695116.</t>
+          <t>9312997695116</t>
         </is>
       </c>
     </row>
@@ -64252,7 +64241,7 @@
       <c r="D2380" t="inlineStr"/>
       <c r="E2380" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Women's Logo Light Quarter Crew Socks (4 Pack) is 4754218750382. ([onbuy.com](https://www.onbuy.com/gb/p/8-pairs-bonds-lightweight-14-quarter-crew-mens-cotton-socks-black-white-sxmx4n-11-14~p71689130/?utm_source=openai))</t>
+          <t>4754218750382</t>
         </is>
       </c>
     </row>
@@ -64275,7 +64264,7 @@
       <c r="D2381" t="inlineStr"/>
       <c r="E2381" t="inlineStr">
         <is>
-          <t>The product code for the Bonds Baby Lightweight Low Cut 3 Pack in white is RXUQ3N_WIT. ([bonds.com.au](https://www.bonds.com.au/baby-lightweight-low-cut-3-pack-white-rxuq3n-wit.html?utm_source=openai)) However, the specific barcode number for this product is not available in the provided sources.</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -64406,7 +64395,7 @@
       <c r="D2386" t="inlineStr"/>
       <c r="E2386" t="inlineStr">
         <is>
-          <t>The Australian barcode for the 'Bonds Lightweight No Show Men's Socks Size 6-10 4 Pack' is 9311497880343. ([ebay.co.uk](https://www.ebay.co.uk/p/16005799160?utm_source=openai))</t>
+          <t>9311497880343</t>
         </is>
       </c>
     </row>
@@ -64429,7 +64418,7 @@
       <c r="D2387" t="inlineStr"/>
       <c r="E2387" t="inlineStr">
         <is>
-          <t>The Bonds Lightweight No Show Socks Size 11-14 Assorted 4 Pack corresponds to the product code SXN64N. ([dugg.com.au](https://www.dugg.com.au/bonds-mens-logo-lightweight-no-show-4-pack-sxn64n-black.html?utm_source=openai)) However, the specific barcode number for this product is not available in the provided sources.</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -64756,7 +64745,7 @@
       <c r="D2400" t="inlineStr"/>
       <c r="E2400" t="inlineStr">
         <is>
-          <t>The barcode for 'Bonds Mens Work Crew Socks Size 11+ 3 Pack' is 9311497880343. ([ebay.co.uk](https://www.ebay.co.uk/p/16005799160?utm_source=openai))</t>
+          <t>9311497880343</t>
         </is>
       </c>
     </row>
@@ -64779,7 +64768,7 @@
       <c r="D2401" t="inlineStr"/>
       <c r="E2401" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Men's Work Crew Socks Size 6+ 3 Pack is 9351257749398. ([ebay.com](https://www.ebay.com/itm/196284684626?utm_source=openai))</t>
+          <t>9351257749398</t>
         </is>
       </c>
     </row>
@@ -64802,7 +64791,7 @@
       <c r="D2402" t="inlineStr"/>
       <c r="E2402" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds No Show Footlets Black (3-8 &amp; 8-11) Each is 9326489015399. ([mydeal.com.au](https://www.mydeal.com.au/6-x-bonds-no-show-footlets-footlet-black-nude-skin-sockettes-stockings-socks-8390880?utm_source=openai))</t>
+          <t>9326489015399</t>
         </is>
       </c>
     </row>
@@ -65032,7 +65021,7 @@
       <c r="D2412" t="inlineStr"/>
       <c r="E2412" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Bonds Sheer Relief Pantyhose Control Support M/ Beige Tall each' is 9310259007073. ([ebay.com](https://www.ebay.com/p/1148232185?utm_source=openai))</t>
+          <t>9310259007073</t>
         </is>
       </c>
     </row>
@@ -65059,7 +65048,7 @@
       </c>
       <c r="E2413" t="inlineStr">
         <is>
-          <t>The barcode for 'Bonds Sports Leggings Black Large-Extra Large Each' is 3147102130888. ([fruugo.co.nz](https://www.fruugo.co.nz/bonds-2-pack-sports-leggings-women-tights-gym-fitness-yoga-pants-black-hxnn1g-bulk/p-334516448-737008241?utm_source=openai))</t>
+          <t>3147102130888</t>
         </is>
       </c>
     </row>
@@ -65086,7 +65075,7 @@
       </c>
       <c r="E2414" t="inlineStr">
         <is>
-          <t>The barcode for 'Bonds Sports Leggings Black Medium-Large Each' is 9352762312152. ([pricemaster.com.au](https://www.pricemaster.com.au/clothing/leggings-7110852110860aud-bonds-bodies-legging-nu-black-s/i-129825?utm_source=openai))</t>
+          <t>9352762312152</t>
         </is>
       </c>
     </row>
@@ -65178,7 +65167,7 @@
       <c r="D2418" t="inlineStr"/>
       <c r="E2418" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Zip Romper Boys Size 000 To 2 Assorted Each is 9356044179051. ([ebay.com](https://www.ebay.com/itm/394010454914?utm_source=openai))</t>
+          <t>9356044179051</t>
         </is>
       </c>
     </row>
@@ -65201,12 +65190,7 @@
       <c r="D2419" t="inlineStr"/>
       <c r="E2419" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Poodlette Zip Wondersuit in size 000 varies depending on the specific design or color. Here are some examples:
-- **White/Admiral Jess Spot**: 9352762792855
-- **Spot Lilac**: 9357679115384
-- **Ditsy Dot Reptila**: 9360456586833
-- **A Thousand Crosses Pink**: 9359481349407
-Please note that the barcode may differ for other designs or colors.</t>
+          <t>9352762792855</t>
         </is>
       </c>
     </row>
@@ -65233,19 +65217,7 @@
       </c>
       <c r="E2420" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Zip Wondersuit in size 000 varies depending on the specific design or color. Here are some examples:
-- Bonds Poodlette Zippy Wondersuit Spot Lilac: 9357679115384
-- Bonds Wondercool Zip Wondersuit - Sunshine Baby White: 9354779605913
-- Bonds Zippy Wondersuit Terrace Garden: 9357679352987
-- Bonds: Zippy Wondersuit - Teal Strip/Marscapone: 9360456344693
-- Bonds: Ribbed Zip Wondersuit - Pink Striped: 9359481013452
-- Bonds Classic Rib Zippy Wondersuit Swirl Grey Marle: 9357679359443
-- Bonds: Wondercool Eyelet Zippy Wondersuit - Sunburst: 9360456344204
-- Bonds: Ribbed Zip Wondersuit - Pop Princess &amp; Sesame Seed: 9359481336087
-- Bonds: Wondercool Zip Wondersuit - Little Dazzle Yellow: 9360456165267
-- Bonds: Long Sleeve Zip Wondersuit - Zebra Stripes: 9359481980457
-- Bonds: Wondercool Eyelet Zip Wondersuit - Aqua Luna Glow: 9360456165052
-Please note that the barcode is specific to each design and color variant.</t>
+          <t>9357679115384</t>
         </is>
       </c>
     </row>
@@ -65272,12 +65244,7 @@
       </c>
       <c r="E2421" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Zip Wondersuit in size 0000 varies depending on the specific design or color. Here are some examples:
-- Wondercool Eyelet Zippy Wondersuit - Sunburst: 9360456344174
-- Ribbed Zip Wondersuit - Pop Princess &amp; Sesame Seed: 9359481336063
-- Wondercool Zip Wondersuit - A Little Sun Sesame Seed: 9359481341975
-- Zip YDG Wondersuit - Marching Moons: 9359481344006
-Please note that each design or color variant has its own unique barcode.</t>
+          <t>9360456344174</t>
         </is>
       </c>
     </row>
@@ -65304,7 +65271,7 @@
       </c>
       <c r="E2422" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Zippy Wondersuit in the 'Little Backyard Helpers' design, size 0 (6-12 months), is 9357679355698. ([ebay.co.uk](https://www.ebay.co.uk/p/14067918553?utm_source=openai))</t>
+          <t>9357679355698</t>
         </is>
       </c>
     </row>
@@ -65331,7 +65298,7 @@
       </c>
       <c r="E2423" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Botanica Origins Sri Lankan Cinnamon Candle 250g is 9300701277451. ([woolworths.com.au](https://www.woolworths.com.au/shop/productdetails/905753/botanica-origins-sri-lankan-cinnamon-candle?srsltid=AfmBOopZ6OQTG2Iq8-3dYfQzfCom7DoI_UB1hyL064egcWTJgorBiZwf&amp;utm_source=openai))</t>
+          <t>9300701277451</t>
         </is>
       </c>
     </row>
@@ -65358,7 +65325,7 @@
       </c>
       <c r="E2424" t="inlineStr">
         <is>
-          <t>The barcode for Cenovis Magnesium Tablets Muscle Health Supplement 200 Pack is 9300705603706. ([thepharmacynetwork.com.au](https://www.thepharmacynetwork.com.au/cenovis-magnesium-200-tablets/?utm_source=openai)) For the 250 Pack, the barcode is 9300705604819. ([ebay.com.au](https://www.ebay.com.au/p/1756664480?utm_source=openai)) However, I couldn't find a specific barcode for the 120 Pack.</t>
+          <t>9300705603706</t>
         </is>
       </c>
     </row>
@@ -65439,7 +65406,7 @@
       </c>
       <c r="E2427" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Cadbury Favourites Boxed Chocolate 820g' is 9300617304265. ([mydeal.com.au](https://www.mydeal.com.au/cadbury-favourites-820g-9867152?utm_source=openai))</t>
+          <t>9300617304265</t>
         </is>
       </c>
     </row>
@@ -65574,7 +65541,7 @@
       </c>
       <c r="E2432" t="inlineStr">
         <is>
-          <t>The Australian barcode (GTIN) for Clairol Natural Instincts Hair Colour 6 Light Brown Semi-Permanent is 3614228302401. ([mydeal.com.au](https://www.mydeal.com.au/clairol-natural-instincts-6-light-brown-14577439?utm_source=openai))</t>
+          <t>3614228302401</t>
         </is>
       </c>
     </row>
@@ -65948,7 +65915,7 @@
       </c>
       <c r="E2446" t="inlineStr">
         <is>
-          <t>The Australian barcode for Comvita Natural Olive Leaf Extract 500ml is 9331527000008. ([health4lifenutrition.com.au](https://www.health4lifenutrition.com.au/comvita-olive-leaf-extract-natural-500ml?utm_source=openai))</t>
+          <t>9331527000008</t>
         </is>
       </c>
     </row>
@@ -65998,7 +65965,7 @@
       </c>
       <c r="E2448" t="inlineStr">
         <is>
-          <t>The barcode for 'Eylure 3/4 Length Lash No 002 Each' in Australia is 619232002937. ([mydeal.com.au](https://www.mydeal.com.au/eylure-3-4-length-no-002-lashes-11774843?utm_source=openai))</t>
+          <t>619232002937</t>
         </is>
       </c>
     </row>
@@ -66079,7 +66046,7 @@
       </c>
       <c r="E2451" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Eylure Eyelashes Pre Glued Ready To Wear Each' is 5011522028149. ([upcitemdb.com](https://www.upcitemdb.com/upc/5011522028149?utm_source=openai))</t>
+          <t>5011522028149</t>
         </is>
       </c>
     </row>
@@ -66106,7 +66073,7 @@
       </c>
       <c r="E2452" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Eylure Eyelashes Ready To Wear 117 Each' is 5011522099408. ([taylorspharmacy.com.au](https://taylorspharmacy.com.au/shop/eylure-fluttery-light-no-117-twin-false-lashes-pack/?utm_source=openai))</t>
+          <t>5011522099408</t>
         </is>
       </c>
     </row>
@@ -66214,7 +66181,7 @@
       </c>
       <c r="E2456" t="inlineStr">
         <is>
-          <t>The barcode for Gillette Intimate Shave Cream &amp; Cleanser 177mL in Australia is 047400683174. ([yeswellness.com](https://www.yeswellness.com/products/gillette-intimate-pubic-shave-cream-cleanser-177ml?utm_source=openai))</t>
+          <t>047400683174</t>
         </is>
       </c>
     </row>
@@ -66318,7 +66285,7 @@
       </c>
       <c r="E2460" t="inlineStr">
         <is>
-          <t>The Australian barcode for Head &amp; Shoulders Cool Menthol Anti-Dandruff Shampoo 660ml is 4987176038579. ([thewarehouse.co.nz](https://www.thewarehouse.co.nz/p/head-shoulders-cool-menthol-shampoo-660ml/R2764213.html?utm_source=openai))</t>
+          <t>4987176038579</t>
         </is>
       </c>
     </row>
@@ -66723,7 +66690,7 @@
       </c>
       <c r="E2475" t="inlineStr">
         <is>
-          <t>The barcode for the Maybelline Express Brow Shaping Pencil in Deep Brown is 9344329247328. ([mydeal.com.au](https://www.mydeal.com.au/maybelline-express-brow-shaping-pencil-deep-brown-12134517?utm_source=openai))</t>
+          <t>9344329247328</t>
         </is>
       </c>
     </row>
@@ -67020,7 +66987,7 @@
       </c>
       <c r="E2486" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Maybelline Lash Sensational Fireworks Waterproof each' is 000030144224. ([mydeal.com.au](https://www.mydeal.com.au/maybelline-lash-sensational-fireworks-mascara-waterproof-black-13431325?utm_source=openai))</t>
+          <t>000030144224</t>
         </is>
       </c>
     </row>
@@ -67047,7 +67014,7 @@
       </c>
       <c r="E2487" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Maybelline Lash Sensational Fireworks each' is 9344329261461. ([mydeal.com.au](https://www.mydeal.com.au/maybelline-lash-sensational-fireworks-mascara-very-black-13172578?utm_source=openai))</t>
+          <t>9344329261461</t>
         </is>
       </c>
     </row>
@@ -67128,7 +67095,7 @@
       </c>
       <c r="E2490" t="inlineStr">
         <is>
-          <t>The Australian barcode for Maybelline Super Fluff 255 Soft Brown is 3600531698737.</t>
+          <t>3600531698737</t>
         </is>
       </c>
     </row>
@@ -67830,7 +67797,7 @@
       </c>
       <c r="E2516" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Cadbury Chomp Milk Chocolate Bar 30g is 9300617323419. ([campbells.com.au](https://www.campbells.com.au/convenience/confectionery-%26-snacks/chocolate/chomp-wafer-biscuit-chocolate/0000431170_890?utm_source=openai))</t>
+          <t>9300617323419</t>
         </is>
       </c>
     </row>
@@ -67938,7 +67905,7 @@
       </c>
       <c r="E2520" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'OGX Argan Oil Penetrating Hair Oil For Dry &amp; Heat Styled Hair 100mL' is 022796916143. ([discountchemist.com.au](https://discountchemist.com.au/ogx-argan-oil-of-morocco-penetrating-oil-100ml/?utm_source=openai))</t>
+          <t>022796916143</t>
         </is>
       </c>
     </row>
@@ -67965,7 +67932,7 @@
       </c>
       <c r="E2521" t="inlineStr">
         <is>
-          <t>The Australian barcode for the OGX Bond Protein Repair 1-Minute Treatment Mask 200mL is 10052800681931. ([ahpcpharmacyoutlet.com.au](https://www.ahpcpharmacyoutlet.com.au/products/ogx-bond-protein-repair-1-minute-treatment-mask-200ml?srsltid=AfmBOorsfMUGs0u7tGb91kmrvO9VNrJ_93-SyPu1vivJlCAeWFz5Hy87&amp;utm_source=openai))</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -67992,7 +67959,7 @@
       </c>
       <c r="E2522" t="inlineStr">
         <is>
-          <t>The Australian barcode for OGX Bond Protein Repair Conditioner 385mL is 0052800681941. ([goodpricepharmacy.com.au](https://www.goodpricepharmacy.com.au/ogx-bond-protein-repair-conditioner-385ml-52800681941?utm_source=openai))</t>
+          <t>0052800681941</t>
         </is>
       </c>
     </row>
@@ -68154,7 +68121,7 @@
       </c>
       <c r="E2528" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Quantum Super Alkaline AAA Batteries 16 Pack is 9339687305001. ([grocerize.com.au](https://grocerize.com.au/products/9339687305001?utm_source=openai))</t>
+          <t>9339687305001</t>
         </is>
       </c>
     </row>
@@ -68250,7 +68217,7 @@
       </c>
       <c r="E2532" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Revlon Age Defying Firm &amp; Lift Make Up Bare Buff 30ml' is 309975212105. ([mydeal.com.au](https://www.mydeal.com.au/revlon-age-defying-3x-foundation-bare-buff-30ml-10433931?utm_source=openai))</t>
+          <t>309975212105</t>
         </is>
       </c>
     </row>
@@ -68277,7 +68244,7 @@
       </c>
       <c r="E2533" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Revlon Age Defying Firm &amp; Lift Make Up Medium Beige 30ml' is 0309975212303. ([dicksmith.com.au](https://www.dicksmith.com.au/da/buy/revlon-age-defying-firming-lifting-makeup-00309975212303/?utm_source=openai))</t>
+          <t>0309975212303</t>
         </is>
       </c>
     </row>
@@ -68304,7 +68271,7 @@
       </c>
       <c r="E2534" t="inlineStr">
         <is>
-          <t>The Australian barcode for Revlon Age Defying Firm &amp; Lift Make Up Soft Beige 30ml is 0309975212303. ([dicksmith.com.au](https://www.dicksmith.com.au/da/buy/revlon-age-defying-firming-lifting-makeup-00309975212303/?utm_source=openai))</t>
+          <t>0309975212303</t>
         </is>
       </c>
     </row>
@@ -68331,7 +68298,7 @@
       </c>
       <c r="E2535" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Revlon All In Tubing Mascara Brown 202 12.9mL' is 9370700079561. ([mattblatt.com.au](https://www.mattblatt.com.au/mb/buy/cosmetics-squad-revlon-all-in-mascara-brown-51009939996885/?utm_source=openai))</t>
+          <t>9370700079561</t>
         </is>
       </c>
     </row>
@@ -68412,7 +68379,7 @@
       </c>
       <c r="E2538" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Revlon Colorstay Brow Fantasy Pencil &amp; Gel Soft Brown' is 309970231101. ([chemistwarehouse.com.au](https://www.chemistwarehouse.com.au/buy/140989/revlon-colorstay-brow-fantasy-pencil-gel-soft-brown?utm_source=openai))</t>
+          <t>309970231101</t>
         </is>
       </c>
     </row>
@@ -68466,7 +68433,7 @@
       </c>
       <c r="E2540" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Revlon ColorStay Brow Shape &amp; Glow in shade 265 Blonde is 0309972258045. ([ebay.com.au](https://www.ebay.com.au/p/27044349799?utm_source=openai))</t>
+          <t>0309972258045</t>
         </is>
       </c>
     </row>
@@ -68628,7 +68595,7 @@
       </c>
       <c r="E2546" t="inlineStr">
         <is>
-          <t>The Australian barcode for Revlon ColorStay Longwear Makeup in Fresh Beige 30ml is 309974700054. ([barcodeindex.com](https://barcodeindex.com/upc/309974700054?utm_source=openai))</t>
+          <t>309974700054</t>
         </is>
       </c>
     </row>
@@ -68655,7 +68622,7 @@
       </c>
       <c r="E2547" t="inlineStr">
         <is>
-          <t>The Australian barcode for Revlon ColorStay Longwear Makeup in Sand Beige 30ml is 309974700030. ([ebay.com.au](https://www.ebay.com.au/itm/334937786623?utm_source=openai))</t>
+          <t>309974700030</t>
         </is>
       </c>
     </row>
@@ -68682,7 +68649,7 @@
       </c>
       <c r="E2548" t="inlineStr">
         <is>
-          <t>The Australian barcode for Revlon ColorStay Longwear Makeup Combination/Oily Skin SPF15 30ml in shade 320 True Beige is 309974700108. ([mydeal.com.au](https://www.mydeal.com.au/revlon-colorstay-longwear-makeup-combination-oily-skin-spf15-30ml-320-true-beige-12007480?utm_source=openai))</t>
+          <t>309974700108</t>
         </is>
       </c>
     </row>
@@ -68709,7 +68676,7 @@
       </c>
       <c r="E2549" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Revlon Colorstay Longwear Makeup Combination/Oily - Buff 30ml' is 0309975410020. ([upcitemdb.com](https://www.upcitemdb.com/upc/309975410020?utm_source=openai))</t>
+          <t>0309975410020</t>
         </is>
       </c>
     </row>
@@ -68871,7 +68838,7 @@
       </c>
       <c r="E2555" t="inlineStr">
         <is>
-          <t>The Australian barcode for Revlon ColorStay Longwear Makeup Combination/Oily Skin SPF15 30ml in shade 220 Natural Beige is 9370700292984. ([ebay.com.au](https://www.ebay.com.au/p/4060230037?utm_source=openai))</t>
+          <t>9370700292984</t>
         </is>
       </c>
     </row>
@@ -68898,7 +68865,7 @@
       </c>
       <c r="E2556" t="inlineStr">
         <is>
-          <t>The Australian barcode for Revlon ColorStay Longwear Makeup Normal/Dry in Fresh Beige 30ml is 0309974677073. ([dicksmith.com.au](https://www.dicksmith.com.au/da/buy/revlon-colorstay-foundation-for-normaldry-fresh-beige-00309974677073/?utm_source=openai))</t>
+          <t>0309974677073</t>
         </is>
       </c>
     </row>
@@ -68925,7 +68892,7 @@
       </c>
       <c r="E2557" t="inlineStr">
         <is>
-          <t>The Australian barcode for Revlon ColorStay Longwear Makeup Normal/Dry in Medium Beige 30ml is 0309974677066. ([ebay.com.au](https://www.ebay.com.au/p/1227935400?utm_source=openai))</t>
+          <t>0309974677066</t>
         </is>
       </c>
     </row>
@@ -68952,7 +68919,7 @@
       </c>
       <c r="E2558" t="inlineStr">
         <is>
-          <t>The Australian barcode (GTIN) for the Revlon ColorStay Micro Brow Pencil in Dark Brown 0.09g is 0309970216900. ([mydeal.com.au](https://www.mydeal.com.au/revlon-colorstay-micro-brow-pencil-dark-brown-10204328?utm_source=openai))</t>
+          <t>0309970216900</t>
         </is>
       </c>
     </row>
@@ -68979,7 +68946,7 @@
       </c>
       <c r="E2559" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Revlon ColorStay Micro Brow Pencil in Soft Brown 0.09g is 309970216894. ([mydeal.com.au](https://www.mydeal.com.au/revlon-colorstay-micro-brow-pencil-soft-brown-10203963?utm_source=openai))</t>
+          <t>309970216894</t>
         </is>
       </c>
     </row>
@@ -69006,7 +68973,7 @@
       </c>
       <c r="E2560" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Cadbury Chomp Milk Chocolate Bar 30g is 9300617323419. ([campbells.com.au](https://www.campbells.com.au/convenience/confectionery-%26-snacks/chocolate/chomp-wafer-biscuit-chocolate/0000431170_890?utm_source=openai))</t>
+          <t>9300617323419</t>
         </is>
       </c>
     </row>
@@ -69195,7 +69162,7 @@
       </c>
       <c r="E2567" t="inlineStr">
         <is>
-          <t>The Australian barcode for Revlon ColorStay Pressed Powder in shade 820 Light (8.4g) is 309975424027. ([mydeal.com.au](https://www.mydeal.com.au/revlon-colorstay-pressed-powder-8-4g-820-light-4937464?utm_source=openai))</t>
+          <t>309975424027</t>
         </is>
       </c>
     </row>
@@ -69222,7 +69189,7 @@
       </c>
       <c r="E2568" t="inlineStr">
         <is>
-          <t>The barcode for Revlon ColorStay Pressed Powder in Light Medium 8.4g is 0309976047034. ([ebay.com.au](https://www.ebay.com.au/itm/135385009971?utm_source=openai))</t>
+          <t>0309976047034</t>
         </is>
       </c>
     </row>
@@ -69303,7 +69270,7 @@
       </c>
       <c r="E2571" t="inlineStr">
         <is>
-          <t>The Australian barcode for Revlon Illuminance Serum Tint Broad Spectrum SPF 15 Natural 28mL is 309970225124. ([mattblatt.com.au](https://www.mattblatt.com.au/mb/buy/revlon-iluminance-serum-tint-spf-213-light-natural-00309970225124/?utm_source=openai))</t>
+          <t>309970225124</t>
         </is>
       </c>
     </row>
@@ -69330,7 +69297,7 @@
       </c>
       <c r="E2572" t="inlineStr">
         <is>
-          <t>The Australian barcode for Revlon Illuminance Serum Tint in Light Beige is 309970225094. ([mattblatt.com.au](https://www.mattblatt.com.au/mb/buy/revlon-illuminance-tinted-serum-spf-light-beige-00309970225094/?utm_source=openai))</t>
+          <t>309970225094</t>
         </is>
       </c>
     </row>
@@ -69357,7 +69324,7 @@
       </c>
       <c r="E2573" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Revlon Illuminance Serum Tint Light Natural' is 0309970225285. ([e-catalog.com](https://e-catalog.com/gtin/0309970225285/?utm_source=openai))</t>
+          <t>0309970225285</t>
         </is>
       </c>
     </row>
@@ -69384,7 +69351,7 @@
       </c>
       <c r="E2574" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Revlon Photoready Powder Light Medium 7.1g' is 309973157026. ([chemistwarehouse.com.au](https://www.chemistwarehouse.com.au/buy/60935/Revlon-PhotoReady-Powder-Light-Medium-020?utm_source=openai))</t>
+          <t>309973157026</t>
         </is>
       </c>
     </row>
@@ -69411,7 +69378,7 @@
       </c>
       <c r="E2575" t="inlineStr">
         <is>
-          <t>The barcode for Revlon PhotoReady Rose Glow Hydrating &amp; Illuminating Primer 30ml is 0309970144869. ([dicksmith.com.au](https://www.dicksmith.com.au/da/buy/revlon-photoready-rose-glow-hydrating-illuminating-primer-30ml-00309970144869/?utm_source=openai))</t>
+          <t>0309970144869</t>
         </is>
       </c>
     </row>
@@ -69465,7 +69432,7 @@
       </c>
       <c r="E2577" t="inlineStr">
         <is>
-          <t>The barcode for Revlon Super Lustrous Lipstick in shade 245 Smoky Rose is 0309976954080. ([ebay.com.au](https://www.ebay.com.au/p/1127895493?utm_source=openai))</t>
+          <t>0309976954080</t>
         </is>
       </c>
     </row>
@@ -69492,7 +69459,7 @@
       </c>
       <c r="E2578" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Sally Hansen Miracle Gel Nail Polish Get Mod Each' is 074170423235. ([mydeal.com.au](https://www.mydeal.com.au/sally-hansen-miracle-gel-get-mod-12351461?utm_source=openai))</t>
+          <t>074170423235</t>
         </is>
       </c>
     </row>
@@ -69573,7 +69540,7 @@
       </c>
       <c r="E2581" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Sally Hansen Complete Care 7-In-1 Nail Treatment 13.3mL' is 074170450996. ([thepharmacynetwork.com.au](https://www.thepharmacynetwork.com.au/sally-hansen-complete-care-7-in-1-nail-treatment?utm_source=openai))</t>
+          <t>074170450996</t>
         </is>
       </c>
     </row>
@@ -69600,7 +69567,7 @@
       </c>
       <c r="E2582" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Sally Hansen Nail Rehab Treatment Nail Polish 10mL' is 0074170452938. ([mydeal.com.au](https://www.mydeal.com.au/sally-hansen-nail-rehab-strength-treatment-10ml-8886120?utm_source=openai))</t>
+          <t>0074170452938</t>
         </is>
       </c>
     </row>
@@ -69627,7 +69594,7 @@
       </c>
       <c r="E2583" t="inlineStr">
         <is>
-          <t>The barcode for the Sally Hansen Salon Effects Perfect Manicure 24 Coffin Press On Nails in the "On Pointe" style is 3616305234308. ([mydeal.com.au](https://www.mydeal.com.au/sally-hansen-salon-effects-perfect-manicure-coffin-on-pointe-13100724?utm_source=openai))</t>
+          <t>3616305234308</t>
         </is>
       </c>
     </row>
@@ -70325,7 +70292,7 @@
       </c>
       <c r="E2609" t="inlineStr">
         <is>
-          <t>93571760</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -70352,7 +70319,7 @@
       </c>
       <c r="E2610" t="inlineStr">
         <is>
-          <t>93575423</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -70433,7 +70400,7 @@
       </c>
       <c r="E2613" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Swisse Ultivite Men's Multivitamin Tablets 30 pack' is 0000093566711. ([ebay.com](https://www.ebay.com/p/9054523094?utm_source=openai))</t>
+          <t>0000093566711</t>
         </is>
       </c>
     </row>
@@ -70676,7 +70643,7 @@
       </c>
       <c r="E2622" t="inlineStr">
         <is>
-          <t>The barcode for Tide Laundry Pods Original 16 pack is 037000930358. ([upcitemdb.com](https://www.upcitemdb.com/upc/37000930358?utm_source=openai))</t>
+          <t>037000930358</t>
         </is>
       </c>
     </row>
@@ -70830,7 +70797,7 @@
       <c r="D2628" t="inlineStr"/>
       <c r="E2628" t="inlineStr">
         <is>
-          <t>The barcode for the Ramesses Ultra Soft Cashmere-Feel Polar Fleece Microfiber Sheet Set in King size and Charcoal color is 9326250105250. ([harrisscarfe.com.au](https://www.harrisscarfe.com.au/home/bed-linen/flannelette-bed-linen/ramesses-cashmere-touch-polar-fleece-sheet-set/BP629061001-charcoal?utm_source=openai))</t>
+          <t>9326250105250</t>
         </is>
       </c>
     </row>
@@ -70876,7 +70843,7 @@
       <c r="D2630" t="inlineStr"/>
       <c r="E2630" t="inlineStr">
         <is>
-          <t>The barcode for the Ramesses Ultra Soft Cashmere-Feel Polar Fleece Microfiber Sheet Set in King size and Grey color is 9326250105250. ([harrisscarfe.com.au](https://www.harrisscarfe.com.au/home/bed-linen/flannelette-bed-linen/ramesses-cashmere-touch-polar-fleece-sheet-set/BP629061001-charcoal?utm_source=openai))</t>
+          <t>9326250105250</t>
         </is>
       </c>
     </row>
@@ -70903,7 +70870,7 @@
       </c>
       <c r="E2631" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Cadbury Favourites Boxed Chocolate 820g' is 9300617304265. ([mydeal.com.au](https://www.mydeal.com.au/cadbury-favourites-820g-9867152?utm_source=openai))</t>
+          <t>9300617304265</t>
         </is>
       </c>
     </row>
@@ -71099,7 +71066,7 @@
       <c r="D2639" t="inlineStr"/>
       <c r="E2639" t="inlineStr">
         <is>
-          <t>The barcode for the Ramesses Ultra Soft Cashmere-Feel Polar Fleece Microfiber Sheet Set in King size and White color is 9326250106646. ([brosa.com.au](https://www.brosa.com.au/br/buy/kingtex-ramesses-polar-fleece-fitted-sheet-king-white-pffs-kwh/?utm_source=openai))</t>
+          <t>9326250106646</t>
         </is>
       </c>
     </row>
@@ -71276,7 +71243,7 @@
       <c r="D2646" t="inlineStr"/>
       <c r="E2646" t="inlineStr">
         <is>
-          <t>The barcode for the Shangri-La Linen Cashmere Touch Flannelette Fitted Sheet Combo Set in King size and Grey color is 9326250086764. ([yarrasupply.com.au](https://www.yarrasupply.com.au/products/shangri-la-cashmere-touch-micro-flannelette-sheet-set-grey-queen?utm_source=openai))</t>
+          <t>9326250086764</t>
         </is>
       </c>
     </row>
@@ -71322,7 +71289,7 @@
       <c r="D2648" t="inlineStr"/>
       <c r="E2648" t="inlineStr">
         <is>
-          <t>The barcode for the Shangri-La Linen Cashmere Touch Flannelette Fitted Sheet Combo Set in King size and Silver color is 9326250086757. ([brosa.com.au](https://www.brosa.com.au/br/buy/manchesterhouse-shangri-la-cashmere-touch-micro-flannelette-sheet-set-silver-queen-kit-sheets-cashmereflannel-silver-qs/?utm_source=openai))</t>
+          <t>9326250086757</t>
         </is>
       </c>
     </row>
@@ -71368,7 +71335,7 @@
       <c r="D2650" t="inlineStr"/>
       <c r="E2650" t="inlineStr">
         <is>
-          <t>The barcode for the Shangri-La Linen Cashmere Touch Flannelette Fitted Sheet Combo Set in King size and Teal color is 9326250117796. ([brosa.com.au](https://www.brosa.com.au/br/buy/kingtex-shangri-la-linen-cashmere-touch-flannelette-fitted-sheet-combo-set-single-teal-plcs-ste/?utm_source=openai))</t>
+          <t>9326250117796</t>
         </is>
       </c>
     </row>
@@ -71391,7 +71358,7 @@
       <c r="D2651" t="inlineStr"/>
       <c r="E2651" t="inlineStr">
         <is>
-          <t>The barcode for the Shangri-La Linen Cashmere Touch Flannelette Fitted Sheet Combo Set in King size and White color is 9326250086740. ([ebay.co.uk](https://www.ebay.co.uk/itm/284549866629?utm_source=openai))</t>
+          <t>9326250086740</t>
         </is>
       </c>
     </row>
